--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arvind/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sameeksha.ajith\Desktop\sam\avy\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824CE508-3F68-334A-8DC0-3593CF065114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{6F78ACD1-B4D4-E942-942C-9DEC9B3D16E0}"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="28035" windowHeight="16080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1115">
   <si>
     <t>Product Name</t>
   </si>
@@ -3570,11 +3570,14 @@
   <si>
     <t>https://www.dropbox.com/s/5g9c8u9m0xqz2ny/Schwarzkopf%20Osis%20Thrill%20Texture%20Fiber%20Gum.jpg?dl=0</t>
   </si>
+  <si>
+    <t>hi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -3711,26 +3714,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3750,9 +3737,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3760,8 +3744,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3769,43 +3798,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4121,22 +4124,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798A4366-FAC7-9F47-81C6-1CEE3D89CFFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A659" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView topLeftCell="A659" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="B679" sqref="B679"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="173.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="3" max="3" width="173.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="177" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4153,14 +4156,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -4269,7 +4272,7 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
@@ -4280,7 +4283,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
@@ -4299,14 +4302,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" customHeight="1">
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
@@ -4316,23 +4319,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" customHeight="1">
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" customHeight="1">
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" customHeight="1">
-      <c r="C22" s="11"/>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C22" s="45"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>9</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
@@ -4343,16 +4346,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
@@ -4363,16 +4366,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="17" customHeight="1">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="47" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
@@ -4382,20 +4385,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" customHeight="1">
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1">
-      <c r="C30" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="85">
+    <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C30" s="45"/>
+    </row>
+    <row r="32" spans="1:5" ht="78.75">
       <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
@@ -4405,14 +4408,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="51">
+    <row r="34" spans="1:5" ht="47.25">
       <c r="A34">
         <v>13</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
@@ -4426,7 +4429,7 @@
       <c r="A36">
         <v>14</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
@@ -4443,7 +4446,7 @@
       <c r="A38">
         <v>15</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C38" t="s">
@@ -4456,14 +4459,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="119">
+    <row r="40" spans="1:5" ht="110.25">
       <c r="A40">
         <v>16</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D40" t="s">
@@ -4477,7 +4480,7 @@
       <c r="A42">
         <v>17</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
@@ -4490,14 +4493,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="51">
+    <row r="44" spans="1:5" ht="45.75">
       <c r="A44">
         <v>18</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D44" t="s">
@@ -4507,14 +4510,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="51">
+    <row r="46" spans="1:5" ht="47.25">
       <c r="A46">
         <v>19</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D46" t="s">
@@ -4524,14 +4527,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="34">
+    <row r="48" spans="1:5" ht="30.75">
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D48" t="s">
@@ -4541,31 +4544,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="68">
+    <row r="50" spans="1:5" ht="60.75">
       <c r="A50">
         <v>21</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="51">
+    <row r="52" spans="1:5" ht="45.75">
       <c r="A52">
         <v>22</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D52" t="s">
@@ -4575,14 +4578,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="34">
+    <row r="54" spans="1:5" ht="31.5">
       <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D54" t="s">
@@ -4592,14 +4595,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="51">
+    <row r="56" spans="1:5" ht="47.25">
       <c r="A56">
         <v>24</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D56" t="s">
@@ -4609,14 +4612,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="68">
+    <row r="58" spans="1:5" ht="63">
       <c r="A58">
         <v>25</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D58" t="s">
@@ -4626,14 +4629,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>26</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D60" t="s">
@@ -4647,10 +4650,10 @@
       <c r="A62">
         <v>27</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D62" t="s">
@@ -4660,14 +4663,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="68">
+    <row r="64" spans="1:5" ht="60.75">
       <c r="A64">
         <v>28</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D64" t="s">
@@ -4681,10 +4684,10 @@
       <c r="A66">
         <v>29</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D66" t="s">
@@ -4694,14 +4697,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="68">
+    <row r="68" spans="1:5" ht="60.75">
       <c r="A68">
         <v>30</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D68" t="s">
@@ -4711,14 +4714,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="85">
+    <row r="70" spans="1:5" ht="78.75">
       <c r="A70">
         <v>31</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D70" t="s">
@@ -4728,14 +4731,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="51">
+    <row r="72" spans="1:5" ht="47.25">
       <c r="A72">
         <v>32</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D72" t="s">
@@ -4745,14 +4748,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="119">
+    <row r="74" spans="1:5" ht="105.75">
       <c r="A74">
         <v>33</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D74" t="s">
@@ -4762,14 +4765,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="54">
+    <row r="76" spans="1:5" ht="49.5">
       <c r="A76">
         <v>34</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D76" t="s">
@@ -4779,14 +4782,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="34">
+    <row r="78" spans="1:5" ht="31.5">
       <c r="A78">
         <v>35</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D78" t="s">
@@ -4796,14 +4799,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="68">
+    <row r="80" spans="1:5" ht="63">
       <c r="A80">
         <v>36</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D80" t="s">
@@ -4817,10 +4820,10 @@
       <c r="A82">
         <v>37</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D82" t="s">
@@ -4834,10 +4837,10 @@
       <c r="A84">
         <v>38</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D84" t="s">
@@ -4847,14 +4850,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="54">
+    <row r="86" spans="1:5" ht="49.5">
       <c r="A86">
         <v>39</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D86" t="s">
@@ -4864,14 +4867,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="68">
+    <row r="88" spans="1:5" ht="60.75">
       <c r="A88">
         <v>40</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D88" t="s">
@@ -4885,10 +4888,10 @@
       <c r="A90">
         <v>41</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D90" t="s">
@@ -4898,14 +4901,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1">
+    <row r="92" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A92">
         <v>42</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="19" t="s">
         <v>153</v>
       </c>
       <c r="D92" t="s">
@@ -4916,50 +4919,50 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1">
-      <c r="A94" s="30">
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A94" s="34">
         <v>43</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="43" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1">
-      <c r="A95" s="30"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="29"/>
-    </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1">
-      <c r="A96" s="30"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="29"/>
-    </row>
-    <row r="97" spans="1:5" ht="17" customHeight="1">
-      <c r="C97" s="26"/>
-    </row>
-    <row r="98" spans="1:5" ht="17" customHeight="1">
+    <row r="95" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A95" s="34"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="43"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A96" s="34"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="43"/>
+    </row>
+    <row r="97" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C97" s="19"/>
+    </row>
+    <row r="98" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A98">
         <v>44</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="9" t="s">
         <v>160</v>
       </c>
       <c r="D98" t="s">
@@ -4969,17 +4972,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17" customHeight="1">
-      <c r="C99" s="26"/>
-    </row>
-    <row r="100" spans="1:5" ht="54">
+    <row r="99" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="C99" s="19"/>
+    </row>
+    <row r="100" spans="1:5" ht="49.5">
       <c r="A100">
         <v>45</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D100" t="s">
@@ -4989,14 +4992,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="36">
+    <row r="102" spans="1:5" ht="33">
       <c r="A102">
         <v>46</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="15" t="s">
         <v>168</v>
       </c>
       <c r="D102" t="s">
@@ -5006,14 +5009,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="36">
+    <row r="104" spans="1:5" ht="33">
       <c r="A104">
         <v>47</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D104" t="s">
@@ -5023,14 +5026,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="34">
+    <row r="106" spans="1:5" ht="30.75">
       <c r="A106">
         <v>48</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D106" t="s">
@@ -5040,14 +5043,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="68">
+    <row r="108" spans="1:5" ht="60.75">
       <c r="A108">
         <v>49</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D108" t="s">
@@ -5057,14 +5060,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="51">
+    <row r="110" spans="1:5" ht="45.75">
       <c r="A110">
         <v>50</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D110" t="s">
@@ -5074,14 +5077,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="34">
+    <row r="112" spans="1:5" ht="30.75">
       <c r="A112">
         <v>51</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="14" t="s">
         <v>187</v>
       </c>
       <c r="D112" t="s">
@@ -5091,14 +5094,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="51">
+    <row r="114" spans="1:5" ht="47.25">
       <c r="A114">
         <v>52</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D114" t="s">
@@ -5108,14 +5111,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="51">
+    <row r="116" spans="1:5" ht="45.75">
       <c r="A116">
         <v>53</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="14" t="s">
         <v>195</v>
       </c>
       <c r="D116" t="s">
@@ -5129,10 +5132,10 @@
       <c r="A118">
         <v>54</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D118" t="s">
@@ -5142,31 +5145,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="34">
+    <row r="120" spans="1:5" ht="30.75">
       <c r="A120">
         <v>55</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="34">
+    <row r="122" spans="1:5" ht="30.75">
       <c r="A122">
         <v>56</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="14" t="s">
         <v>207</v>
       </c>
       <c r="D122" t="s">
@@ -5176,14 +5179,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="102">
+    <row r="124" spans="1:5" ht="94.5">
       <c r="A124">
         <v>57</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D124" t="s">
@@ -5193,45 +5196,45 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" customHeight="1">
-      <c r="A126" s="30">
+    <row r="126" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A126" s="34">
         <v>58</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E126" s="32" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" customHeight="1">
-      <c r="A127" s="30"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="28"/>
+    <row r="127" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A127" s="34"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="42"/>
       <c r="E127" s="32"/>
     </row>
-    <row r="128" spans="1:5" ht="17" customHeight="1">
-      <c r="A128" s="30"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="28"/>
+    <row r="128" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A128" s="34"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="42"/>
       <c r="E128" s="32"/>
     </row>
-    <row r="130" spans="1:5" ht="51">
+    <row r="130" spans="1:5" ht="45.75">
       <c r="A130">
         <v>59</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D130" t="s">
@@ -5241,14 +5244,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="51">
+    <row r="132" spans="1:5" ht="45.75">
       <c r="A132">
         <v>60</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="14" t="s">
         <v>221</v>
       </c>
       <c r="D132" t="s">
@@ -5262,10 +5265,10 @@
       <c r="A134">
         <v>61</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="9" t="s">
         <v>224</v>
       </c>
       <c r="D134" t="s">
@@ -5275,90 +5278,90 @@
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" customHeight="1">
-      <c r="A136" s="30">
+    <row r="136" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A136" s="34">
         <v>62</v>
       </c>
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C136" s="33" t="s">
+      <c r="C136" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D136" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E136" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" customHeight="1">
-      <c r="A137" s="30"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="12"/>
+    <row r="137" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A137" s="34"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="31"/>
       <c r="E137" s="32"/>
     </row>
-    <row r="138" spans="1:5" ht="17" customHeight="1">
-      <c r="A138" s="30"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="12"/>
+    <row r="138" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A138" s="34"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="31"/>
       <c r="E138" s="32"/>
     </row>
-    <row r="140" spans="1:5" ht="17" customHeight="1">
-      <c r="A140" s="30">
+    <row r="140" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A140" s="34">
         <v>63</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C140" s="33" t="s">
+      <c r="C140" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="31" t="s">
         <v>232</v>
       </c>
       <c r="E140" s="32" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" customHeight="1">
-      <c r="A141" s="30"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="12"/>
+    <row r="141" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A141" s="34"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="31"/>
       <c r="E141" s="32"/>
     </row>
-    <row r="142" spans="1:5" ht="17" customHeight="1">
-      <c r="A142" s="30"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="12"/>
+    <row r="142" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A142" s="34"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="31"/>
       <c r="E142" s="32"/>
     </row>
-    <row r="143" spans="1:5" ht="17" customHeight="1">
-      <c r="A143" s="30"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="12"/>
+    <row r="143" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A143" s="34"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="31"/>
       <c r="E143" s="32"/>
     </row>
-    <row r="144" spans="1:5" ht="17" customHeight="1">
-      <c r="A144" s="30"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="12"/>
+    <row r="144" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A144" s="34"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="31"/>
       <c r="E144" s="32"/>
     </row>
-    <row r="146" spans="1:5" ht="51">
+    <row r="146" spans="1:5" ht="45.75">
       <c r="A146">
         <v>64</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="14" t="s">
         <v>235</v>
       </c>
       <c r="D146" t="s">
@@ -5368,14 +5371,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="51">
+    <row r="148" spans="1:5" ht="45.75">
       <c r="A148">
         <v>65</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D148" t="s">
@@ -5385,14 +5388,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="68">
+    <row r="150" spans="1:5" ht="60.75">
       <c r="A150">
         <v>66</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="14" t="s">
         <v>242</v>
       </c>
       <c r="D150" t="s">
@@ -5402,14 +5405,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="51">
+    <row r="152" spans="1:5" ht="47.25">
       <c r="A152">
         <v>67</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C152" s="16" t="s">
+      <c r="C152" s="10" t="s">
         <v>245</v>
       </c>
       <c r="D152" t="s">
@@ -5419,14 +5422,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="85">
+    <row r="154" spans="1:5" ht="94.5">
       <c r="A154">
         <v>68</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="C154" s="10" t="s">
         <v>249</v>
       </c>
       <c r="D154" t="s">
@@ -5436,14 +5439,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="51">
+    <row r="156" spans="1:5" ht="47.25">
       <c r="A156">
         <v>69</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C156" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D156" t="s">
@@ -5453,14 +5456,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="68">
+    <row r="158" spans="1:5" ht="60.75">
       <c r="A158">
         <v>70</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="14" t="s">
         <v>256</v>
       </c>
       <c r="D158" t="s">
@@ -5470,14 +5473,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="85">
+    <row r="160" spans="1:5" ht="75.75">
       <c r="A160">
         <v>71</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="14" t="s">
         <v>260</v>
       </c>
       <c r="D160" t="s">
@@ -5487,14 +5490,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="51">
+    <row r="162" spans="1:5" ht="45.75">
       <c r="A162">
         <v>72</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="14" t="s">
         <v>263</v>
       </c>
       <c r="D162" t="s">
@@ -5504,14 +5507,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="34">
+    <row r="164" spans="1:5" ht="30.75">
       <c r="A164">
         <v>73</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="14" t="s">
         <v>266</v>
       </c>
       <c r="D164" t="s">
@@ -5521,14 +5524,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="34">
+    <row r="166" spans="1:5" ht="30.75">
       <c r="A166">
         <v>74</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="14" t="s">
         <v>269</v>
       </c>
       <c r="D166" t="s">
@@ -5538,14 +5541,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="85">
+    <row r="168" spans="1:5" ht="75.75">
       <c r="A168">
         <v>75</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="14" t="s">
         <v>272</v>
       </c>
       <c r="D168" t="s">
@@ -5555,14 +5558,14 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="34">
+    <row r="170" spans="1:5" ht="31.5">
       <c r="A170">
         <v>76</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="14" t="s">
         <v>275</v>
       </c>
       <c r="D170" t="s">
@@ -5572,14 +5575,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="51">
+    <row r="172" spans="1:5" ht="45.75">
       <c r="A172">
         <v>77</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="14" t="s">
         <v>279</v>
       </c>
       <c r="D172" t="s">
@@ -5593,10 +5596,10 @@
       <c r="A174">
         <v>78</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="12" t="s">
         <v>282</v>
       </c>
       <c r="D174" t="s">
@@ -5606,14 +5609,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="68">
+    <row r="176" spans="1:5" ht="60.75">
       <c r="A176">
         <v>79</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="14" t="s">
         <v>286</v>
       </c>
       <c r="D176" t="s">
@@ -5623,14 +5626,14 @@
         <v>287</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="34">
+    <row r="178" spans="1:5" ht="30.75">
       <c r="A178">
         <v>80</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="14" t="s">
         <v>289</v>
       </c>
       <c r="D178" t="s">
@@ -5640,14 +5643,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="34">
+    <row r="180" spans="1:5" ht="30.75">
       <c r="A180">
         <v>81</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="14" t="s">
         <v>292</v>
       </c>
       <c r="D180" t="s">
@@ -5657,14 +5660,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="34">
+    <row r="182" spans="1:5" ht="30.75">
       <c r="A182">
         <v>82</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="14" t="s">
         <v>295</v>
       </c>
       <c r="D182" t="s">
@@ -5678,10 +5681,10 @@
       <c r="A184">
         <v>83</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="9" t="s">
         <v>299</v>
       </c>
       <c r="D184" t="s">
@@ -5691,31 +5694,31 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="34">
+    <row r="186" spans="1:5" ht="39">
       <c r="A186">
         <v>84</v>
       </c>
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="9" t="s">
         <v>302</v>
       </c>
       <c r="D186" t="s">
         <v>303</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="34">
+    <row r="188" spans="1:5" ht="30.75">
       <c r="A188">
         <v>85</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C188" s="20" t="s">
+      <c r="C188" s="14" t="s">
         <v>306</v>
       </c>
       <c r="D188" t="s">
@@ -5725,14 +5728,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="85">
+    <row r="190" spans="1:5" ht="75.75">
       <c r="A190">
         <v>86</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="14" t="s">
         <v>310</v>
       </c>
       <c r="D190" t="s">
@@ -5746,10 +5749,10 @@
       <c r="A192">
         <v>87</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="9" t="s">
         <v>313</v>
       </c>
       <c r="D192" t="s">
@@ -5763,10 +5766,10 @@
       <c r="A194">
         <v>88</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="9" t="s">
         <v>316</v>
       </c>
       <c r="D194" t="s">
@@ -5780,10 +5783,10 @@
       <c r="A196">
         <v>89</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="9" t="s">
         <v>319</v>
       </c>
       <c r="D196" t="s">
@@ -5797,10 +5800,10 @@
       <c r="A198">
         <v>90</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="9" t="s">
         <v>323</v>
       </c>
       <c r="D198" t="s">
@@ -5810,14 +5813,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="34">
+    <row r="200" spans="1:5" ht="30.75">
       <c r="A200">
         <v>91</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="14" t="s">
         <v>327</v>
       </c>
       <c r="D200" t="s">
@@ -5827,14 +5830,14 @@
         <v>328</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="34">
+    <row r="202" spans="1:5" ht="30.75">
       <c r="A202">
         <v>92</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="14" t="s">
         <v>330</v>
       </c>
       <c r="D202" t="s">
@@ -5848,10 +5851,10 @@
       <c r="A204">
         <v>93</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="9" t="s">
         <v>334</v>
       </c>
       <c r="D204" t="s">
@@ -5861,14 +5864,14 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="34">
+    <row r="206" spans="1:5" ht="30.75">
       <c r="A206">
         <v>94</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="14" t="s">
         <v>337</v>
       </c>
       <c r="D206" t="s">
@@ -5878,14 +5881,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="34">
+    <row r="208" spans="1:5" ht="30.75">
       <c r="A208">
         <v>95</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="C208" s="14" t="s">
         <v>340</v>
       </c>
       <c r="D208" t="s">
@@ -5895,14 +5898,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="51">
+    <row r="210" spans="1:5" ht="45.75">
       <c r="A210">
         <v>96</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="C210" s="14" t="s">
         <v>344</v>
       </c>
       <c r="D210" t="s">
@@ -5912,14 +5915,14 @@
         <v>346</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="85">
+    <row r="212" spans="1:5" ht="78.75">
       <c r="A212">
         <v>97</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C212" s="16" t="s">
+      <c r="C212" s="10" t="s">
         <v>348</v>
       </c>
       <c r="D212" t="s">
@@ -5929,14 +5932,14 @@
         <v>350</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="54">
+    <row r="214" spans="1:5" ht="49.5">
       <c r="A214">
         <v>98</v>
       </c>
-      <c r="B214" s="24" t="s">
+      <c r="B214" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="15" t="s">
         <v>352</v>
       </c>
       <c r="D214" t="s">
@@ -5950,10 +5953,10 @@
       <c r="A216">
         <v>99</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C216" s="9" t="s">
         <v>358</v>
       </c>
       <c r="D216" t="s">
@@ -5967,7 +5970,7 @@
       <c r="A218">
         <v>100</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>357</v>
       </c>
       <c r="C218" t="s">
@@ -5980,14 +5983,14 @@
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="68">
+    <row r="220" spans="1:5" ht="60.75">
       <c r="A220">
         <v>101</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="C220" s="14" t="s">
         <v>363</v>
       </c>
       <c r="D220" t="s">
@@ -5997,14 +6000,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="34">
+    <row r="222" spans="1:5" ht="30.75">
       <c r="A222">
         <v>102</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="14" t="s">
         <v>366</v>
       </c>
       <c r="D222" t="s">
@@ -6014,14 +6017,14 @@
         <v>368</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="68">
+    <row r="224" spans="1:5" ht="60.75">
       <c r="A224">
         <v>103</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="14" t="s">
         <v>370</v>
       </c>
       <c r="D224" t="s">
@@ -6031,14 +6034,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="51">
+    <row r="226" spans="1:5" ht="45.75">
       <c r="A226">
         <v>104</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="14" t="s">
         <v>373</v>
       </c>
       <c r="D226" t="s">
@@ -6052,10 +6055,10 @@
       <c r="A228">
         <v>105</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="9" t="s">
         <v>376</v>
       </c>
       <c r="D228" t="s">
@@ -6065,14 +6068,14 @@
         <v>377</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="68">
+    <row r="230" spans="1:5" ht="60.75">
       <c r="A230">
         <v>106</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C230" s="20" t="s">
+      <c r="C230" s="14" t="s">
         <v>379</v>
       </c>
       <c r="D230" t="s">
@@ -6082,14 +6085,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="51">
+    <row r="232" spans="1:5" ht="45.75">
       <c r="A232">
         <v>107</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C232" s="20" t="s">
+      <c r="C232" s="14" t="s">
         <v>382</v>
       </c>
       <c r="D232" t="s">
@@ -6100,16 +6103,16 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="C233" s="20"/>
-    </row>
-    <row r="234" spans="1:5" ht="102">
+      <c r="C233" s="14"/>
+    </row>
+    <row r="234" spans="1:5" ht="90.75">
       <c r="A234">
         <v>108</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C234" s="20" t="s">
+      <c r="C234" s="14" t="s">
         <v>385</v>
       </c>
       <c r="D234" t="s">
@@ -6119,14 +6122,14 @@
         <v>386</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="85">
+    <row r="236" spans="1:5" ht="75.75">
       <c r="A236">
         <v>109</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C236" s="20" t="s">
+      <c r="C236" s="14" t="s">
         <v>388</v>
       </c>
       <c r="D236" t="s">
@@ -6136,14 +6139,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="34">
+    <row r="238" spans="1:5" ht="30.75">
       <c r="A238">
         <v>110</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="14" t="s">
         <v>392</v>
       </c>
       <c r="D238" t="s">
@@ -6153,14 +6156,14 @@
         <v>394</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="34">
+    <row r="240" spans="1:5" ht="30.75">
       <c r="A240">
         <v>111</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C240" s="20" t="s">
+      <c r="C240" s="14" t="s">
         <v>396</v>
       </c>
       <c r="D240" t="s">
@@ -6170,14 +6173,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="17">
+    <row r="242" spans="1:5" ht="16.5">
       <c r="A242">
         <v>112</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="8" t="s">
         <v>399</v>
       </c>
       <c r="D242" t="s">
@@ -6187,17 +6190,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="17">
-      <c r="C243" s="9"/>
+    <row r="243" spans="1:5" ht="16.5">
+      <c r="C243" s="8"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
         <v>113</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C244" s="9" t="s">
         <v>402</v>
       </c>
       <c r="D244" t="s">
@@ -6211,10 +6214,10 @@
       <c r="A246">
         <v>114</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C246" s="34" t="s">
+      <c r="C246" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D246" t="s">
@@ -6224,67 +6227,67 @@
         <v>407</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="17" customHeight="1">
+    <row r="248" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A248">
         <v>115</v>
       </c>
-      <c r="B248" s="36" t="s">
+      <c r="B248" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="C248" s="35" t="s">
+      <c r="C248" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="D248" s="6" t="s">
+      <c r="D248" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="E248" s="37" t="s">
+      <c r="E248" s="36" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="B249" s="36"/>
-      <c r="C249" s="35"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-    </row>
-    <row r="250" spans="1:5" ht="17" customHeight="1">
-      <c r="B250" s="36"/>
-      <c r="C250" s="35"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-    </row>
-    <row r="251" spans="1:5" ht="17" customHeight="1">
-      <c r="B251" s="36"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-    </row>
-    <row r="252" spans="1:5" ht="17" customHeight="1">
-      <c r="B252" s="36"/>
-      <c r="C252" s="35"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-    </row>
-    <row r="253" spans="1:5" ht="17" customHeight="1">
-      <c r="B253" s="36"/>
-      <c r="C253" s="35"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-    </row>
-    <row r="254" spans="1:5" ht="17" customHeight="1">
-      <c r="B254" s="36"/>
-      <c r="C254" s="35"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
+      <c r="B249" s="29"/>
+      <c r="C249" s="39"/>
+      <c r="D249" s="27"/>
+      <c r="E249" s="27"/>
+    </row>
+    <row r="250" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="B250" s="29"/>
+      <c r="C250" s="39"/>
+      <c r="D250" s="27"/>
+      <c r="E250" s="27"/>
+    </row>
+    <row r="251" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="B251" s="29"/>
+      <c r="C251" s="39"/>
+      <c r="D251" s="27"/>
+      <c r="E251" s="27"/>
+    </row>
+    <row r="252" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="B252" s="29"/>
+      <c r="C252" s="39"/>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
+    </row>
+    <row r="253" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="B253" s="29"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="27"/>
+      <c r="E253" s="27"/>
+    </row>
+    <row r="254" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="B254" s="29"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
         <v>116</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="9" t="s">
         <v>416</v>
       </c>
       <c r="D256" t="s">
@@ -6294,14 +6297,14 @@
         <v>414</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="51">
+    <row r="258" spans="1:5" ht="45.75">
       <c r="A258">
         <v>117</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="C258" s="14" t="s">
         <v>417</v>
       </c>
       <c r="D258" t="s">
@@ -6311,14 +6314,14 @@
         <v>419</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="34">
+    <row r="260" spans="1:5" ht="30.75">
       <c r="A260">
         <v>118</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="14" t="s">
         <v>421</v>
       </c>
       <c r="D260" t="s">
@@ -6328,14 +6331,14 @@
         <v>423</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="51">
+    <row r="262" spans="1:5" ht="45.75">
       <c r="A262">
         <v>119</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C262" s="20" t="s">
+      <c r="C262" s="14" t="s">
         <v>425</v>
       </c>
       <c r="D262" t="s">
@@ -6345,14 +6348,14 @@
         <v>427</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="85">
+    <row r="264" spans="1:5" ht="75.75">
       <c r="A264">
         <v>120</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C264" s="20" t="s">
+      <c r="C264" s="14" t="s">
         <v>429</v>
       </c>
       <c r="D264" t="s">
@@ -6362,14 +6365,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="51">
+    <row r="266" spans="1:5" ht="45.75">
       <c r="A266">
         <v>121</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C266" s="20" t="s">
+      <c r="C266" s="14" t="s">
         <v>433</v>
       </c>
       <c r="D266" t="s">
@@ -6380,16 +6383,16 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="C267" s="20"/>
-    </row>
-    <row r="268" spans="1:5" ht="36">
+      <c r="C267" s="14"/>
+    </row>
+    <row r="268" spans="1:5" ht="33">
       <c r="A268">
         <v>122</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C268" s="21" t="s">
+      <c r="C268" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D268" t="s">
@@ -6399,14 +6402,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="72">
+    <row r="270" spans="1:5" ht="66">
       <c r="A270">
         <v>123</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C270" s="21" t="s">
+      <c r="C270" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D270" t="s">
@@ -6417,51 +6420,51 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="18" customHeight="1">
-      <c r="A272" s="6">
+      <c r="A272" s="27">
         <v>124</v>
       </c>
-      <c r="B272" s="36" t="s">
+      <c r="B272" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="C272" s="10" t="s">
+      <c r="C272" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="D272" s="6" t="s">
+      <c r="D272" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E272" s="37" t="s">
+      <c r="E272" s="36" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" customHeight="1">
-      <c r="A273" s="6"/>
-      <c r="B273" s="36"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
+      <c r="A273" s="27"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="40"/>
+      <c r="D273" s="27"/>
+      <c r="E273" s="27"/>
     </row>
     <row r="274" spans="1:5" ht="18" customHeight="1">
-      <c r="A274" s="6"/>
-      <c r="B274" s="36"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
+      <c r="A274" s="27"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="40"/>
+      <c r="D274" s="27"/>
+      <c r="E274" s="27"/>
     </row>
     <row r="275" spans="1:5" ht="18" customHeight="1">
-      <c r="A275" s="6"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-    </row>
-    <row r="277" spans="1:5" ht="36">
+      <c r="A275" s="27"/>
+      <c r="B275" s="29"/>
+      <c r="C275" s="40"/>
+      <c r="D275" s="27"/>
+      <c r="E275" s="27"/>
+    </row>
+    <row r="277" spans="1:5" ht="33">
       <c r="A277">
         <v>125</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C277" s="21" t="s">
+      <c r="C277" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D277" t="s">
@@ -6471,14 +6474,14 @@
         <v>447</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="34">
+    <row r="279" spans="1:5" ht="30.75">
       <c r="A279">
         <v>126</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C279" s="20" t="s">
+      <c r="C279" s="14" t="s">
         <v>449</v>
       </c>
       <c r="D279" t="s">
@@ -6488,52 +6491,52 @@
         <v>451</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="17" customHeight="1">
-      <c r="A281" s="6">
+    <row r="281" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A281" s="27">
         <v>127</v>
       </c>
-      <c r="B281" s="36" t="s">
+      <c r="B281" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="C281" s="23" t="s">
+      <c r="C281" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="6" t="s">
+      <c r="D281" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E281" s="37" t="s">
+      <c r="E281" s="36" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="17" customHeight="1">
-      <c r="A282" s="6"/>
-      <c r="B282" s="36"/>
-      <c r="C282" s="38"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-    </row>
-    <row r="283" spans="1:5" ht="17" customHeight="1">
-      <c r="A283" s="6"/>
-      <c r="B283" s="36"/>
-      <c r="C283" s="38"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-    </row>
-    <row r="284" spans="1:5" ht="17" customHeight="1">
-      <c r="A284" s="6"/>
-      <c r="B284" s="36"/>
-      <c r="C284" s="38"/>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
+    <row r="282" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A282" s="27"/>
+      <c r="B282" s="29"/>
+      <c r="C282" s="26"/>
+      <c r="D282" s="27"/>
+      <c r="E282" s="27"/>
+    </row>
+    <row r="283" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A283" s="27"/>
+      <c r="B283" s="29"/>
+      <c r="C283" s="26"/>
+      <c r="D283" s="27"/>
+      <c r="E283" s="27"/>
+    </row>
+    <row r="284" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A284" s="27"/>
+      <c r="B284" s="29"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
         <v>128</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="9" t="s">
         <v>456</v>
       </c>
       <c r="D286" t="s">
@@ -6543,14 +6546,14 @@
         <v>458</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="51">
+    <row r="288" spans="1:5" ht="45.75">
       <c r="A288">
         <v>129</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C288" s="20" t="s">
+      <c r="C288" s="14" t="s">
         <v>460</v>
       </c>
       <c r="D288" t="s">
@@ -6560,48 +6563,48 @@
         <v>462</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="51">
+    <row r="290" spans="1:5" ht="45.75">
       <c r="A290">
         <v>130</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="B290" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C290" s="20" t="s">
+      <c r="C290" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="D290" s="8" t="s">
+      <c r="D290" s="7" t="s">
         <v>465</v>
       </c>
       <c r="E290" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="51">
+    <row r="292" spans="1:5" ht="45.75">
       <c r="A292">
         <v>131</v>
       </c>
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="D292" s="8" t="s">
+      <c r="D292" s="7" t="s">
         <v>465</v>
       </c>
       <c r="E292" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="102">
+    <row r="294" spans="1:5" ht="90.75">
       <c r="A294">
         <v>132</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C294" s="20" t="s">
+      <c r="C294" s="14" t="s">
         <v>471</v>
       </c>
       <c r="D294" t="s">
@@ -6615,10 +6618,10 @@
       <c r="A296">
         <v>133</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D296" t="s">
@@ -6628,31 +6631,31 @@
         <v>477</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="54">
+    <row r="298" spans="1:5" ht="49.5">
       <c r="A298">
         <v>134</v>
       </c>
-      <c r="B298" s="24" t="s">
+      <c r="B298" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C298" s="21" t="s">
+      <c r="C298" s="15" t="s">
         <v>479</v>
       </c>
       <c r="D298" t="s">
         <v>480</v>
       </c>
-      <c r="E298" s="16" t="s">
+      <c r="E298" s="10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="34">
+    <row r="300" spans="1:5" ht="30.75">
       <c r="A300">
         <v>135</v>
       </c>
-      <c r="B300" s="8" t="s">
+      <c r="B300" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C300" s="14" t="s">
         <v>483</v>
       </c>
       <c r="D300" t="s">
@@ -6662,14 +6665,14 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="34">
+    <row r="302" spans="1:5" ht="30.75">
       <c r="A302">
         <v>136</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C302" s="20" t="s">
+      <c r="C302" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D302" t="s">
@@ -6679,14 +6682,14 @@
         <v>489</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="68">
+    <row r="304" spans="1:5" ht="60.75">
       <c r="A304">
         <v>137</v>
       </c>
-      <c r="B304" s="8" t="s">
+      <c r="B304" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C304" s="20" t="s">
+      <c r="C304" s="14" t="s">
         <v>491</v>
       </c>
       <c r="D304" t="s">
@@ -6696,31 +6699,31 @@
         <v>493</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="51">
+    <row r="306" spans="1:5" ht="45.75">
       <c r="A306">
         <v>138</v>
       </c>
-      <c r="B306" s="8" t="s">
+      <c r="B306" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C306" s="20" t="s">
+      <c r="C306" s="14" t="s">
         <v>495</v>
       </c>
       <c r="D306" t="s">
         <v>496</v>
       </c>
-      <c r="E306" s="39" t="s">
+      <c r="E306" s="21" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="34">
+    <row r="308" spans="1:5" ht="30.75">
       <c r="A308">
         <v>139</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="B308" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C308" s="20" t="s">
+      <c r="C308" s="14" t="s">
         <v>499</v>
       </c>
       <c r="D308" t="s">
@@ -6730,14 +6733,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="34">
+    <row r="310" spans="1:5" ht="30.75">
       <c r="A310">
         <v>140</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C310" s="20" t="s">
+      <c r="C310" s="14" t="s">
         <v>502</v>
       </c>
       <c r="D310" t="s">
@@ -6747,14 +6750,14 @@
         <v>504</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="36">
+    <row r="312" spans="1:5" ht="33">
       <c r="A312">
         <v>141</v>
       </c>
-      <c r="B312" s="24" t="s">
+      <c r="B312" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="15" t="s">
         <v>506</v>
       </c>
       <c r="D312" t="s">
@@ -6764,14 +6767,14 @@
         <v>507</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="72">
+    <row r="314" spans="1:5" ht="66">
       <c r="A314">
         <v>142</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="B314" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C314" s="21" t="s">
+      <c r="C314" s="15" t="s">
         <v>509</v>
       </c>
       <c r="D314" t="s">
@@ -6781,52 +6784,52 @@
         <v>511</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="29" customHeight="1">
-      <c r="A316" s="6">
+    <row r="316" spans="1:5" ht="29.1" customHeight="1">
+      <c r="A316" s="27">
         <v>143</v>
       </c>
-      <c r="B316" s="42" t="s">
+      <c r="B316" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="C316" s="41" t="s">
+      <c r="C316" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="D316" s="6" t="s">
+      <c r="D316" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="E316" s="37" t="s">
+      <c r="E316" s="36" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="6"/>
-      <c r="B317" s="42"/>
-      <c r="C317" s="40"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
+      <c r="A317" s="27"/>
+      <c r="B317" s="38"/>
+      <c r="C317" s="37"/>
+      <c r="D317" s="27"/>
+      <c r="E317" s="27"/>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="6"/>
-      <c r="B318" s="42"/>
-      <c r="C318" s="40"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
+      <c r="A318" s="27"/>
+      <c r="B318" s="38"/>
+      <c r="C318" s="37"/>
+      <c r="D318" s="27"/>
+      <c r="E318" s="27"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="6"/>
-      <c r="B319" s="42"/>
-      <c r="C319" s="40"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
-    </row>
-    <row r="321" spans="1:5" ht="51">
+      <c r="A319" s="27"/>
+      <c r="B319" s="38"/>
+      <c r="C319" s="37"/>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27"/>
+    </row>
+    <row r="321" spans="1:5" ht="45.75">
       <c r="A321">
         <v>144</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C321" s="20" t="s">
+      <c r="C321" s="14" t="s">
         <v>517</v>
       </c>
       <c r="D321" t="s">
@@ -6836,14 +6839,14 @@
         <v>518</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="68">
+    <row r="323" spans="1:5" ht="60.75">
       <c r="A323">
         <v>145</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C323" s="20" t="s">
+      <c r="C323" s="14" t="s">
         <v>520</v>
       </c>
       <c r="D323" t="s">
@@ -6853,14 +6856,14 @@
         <v>521</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="34">
+    <row r="325" spans="1:5" ht="30.75">
       <c r="A325">
         <v>146</v>
       </c>
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="C325" s="14" t="s">
         <v>523</v>
       </c>
       <c r="D325" t="s">
@@ -6870,14 +6873,14 @@
         <v>525</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="68">
+    <row r="327" spans="1:5" ht="60.75">
       <c r="A327">
         <v>147</v>
       </c>
-      <c r="B327" s="8" t="s">
+      <c r="B327" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C327" s="20" t="s">
+      <c r="C327" s="14" t="s">
         <v>527</v>
       </c>
       <c r="D327" t="s">
@@ -6891,10 +6894,10 @@
       <c r="A329">
         <v>148</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B329" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C329" s="13" t="s">
+      <c r="C329" s="9" t="s">
         <v>531</v>
       </c>
       <c r="D329" t="s">
@@ -6904,42 +6907,42 @@
         <v>532</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="17" customHeight="1">
-      <c r="A331" s="6">
+    <row r="331" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A331" s="27">
         <v>149</v>
       </c>
-      <c r="B331" s="36" t="s">
+      <c r="B331" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="C331" s="23" t="s">
+      <c r="C331" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="D331" s="6" t="s">
+      <c r="D331" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="E331" s="37" t="s">
+      <c r="E331" s="36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="17" customHeight="1">
-      <c r="A332" s="6"/>
-      <c r="B332" s="36"/>
-      <c r="C332" s="38"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-    </row>
-    <row r="333" spans="1:5" ht="17" customHeight="1">
-      <c r="A333" s="6"/>
-      <c r="B333" s="36"/>
-      <c r="C333" s="38"/>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
+    <row r="332" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A332" s="27"/>
+      <c r="B332" s="29"/>
+      <c r="C332" s="26"/>
+      <c r="D332" s="27"/>
+      <c r="E332" s="27"/>
+    </row>
+    <row r="333" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A333" s="27"/>
+      <c r="B333" s="29"/>
+      <c r="C333" s="26"/>
+      <c r="D333" s="27"/>
+      <c r="E333" s="27"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335">
         <v>150</v>
       </c>
-      <c r="B335" s="8" t="s">
+      <c r="B335" s="7" t="s">
         <v>537</v>
       </c>
       <c r="C335" t="s">
@@ -6952,14 +6955,14 @@
         <v>539</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="54">
+    <row r="337" spans="1:5" ht="49.5">
       <c r="A337">
         <v>151</v>
       </c>
-      <c r="B337" s="24" t="s">
+      <c r="B337" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="C337" s="21" t="s">
+      <c r="C337" s="15" t="s">
         <v>542</v>
       </c>
       <c r="D337" t="s">
@@ -6969,14 +6972,14 @@
         <v>544</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="51">
+    <row r="339" spans="1:5" ht="45.75">
       <c r="A339">
         <v>152</v>
       </c>
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C339" s="20" t="s">
+      <c r="C339" s="14" t="s">
         <v>546</v>
       </c>
       <c r="D339" t="s">
@@ -6986,14 +6989,14 @@
         <v>548</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="51">
+    <row r="341" spans="1:5" ht="45.75">
       <c r="A341">
         <v>153</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C341" s="20" t="s">
+      <c r="C341" s="14" t="s">
         <v>550</v>
       </c>
       <c r="D341" t="s">
@@ -7003,14 +7006,14 @@
         <v>552</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="68">
+    <row r="343" spans="1:5" ht="60.75">
       <c r="A343">
         <v>154</v>
       </c>
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C343" s="20" t="s">
+      <c r="C343" s="14" t="s">
         <v>554</v>
       </c>
       <c r="D343" t="s">
@@ -7020,14 +7023,14 @@
         <v>555</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="34">
+    <row r="345" spans="1:5" ht="30.75">
       <c r="A345">
         <v>155</v>
       </c>
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C345" s="20" t="s">
+      <c r="C345" s="14" t="s">
         <v>558</v>
       </c>
       <c r="D345" t="s">
@@ -7037,14 +7040,14 @@
         <v>559</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="68">
+    <row r="347" spans="1:5" ht="60.75">
       <c r="A347">
         <v>156</v>
       </c>
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C347" s="20" t="s">
+      <c r="C347" s="14" t="s">
         <v>561</v>
       </c>
       <c r="D347" t="s">
@@ -7054,14 +7057,14 @@
         <v>562</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="68">
+    <row r="349" spans="1:5" ht="60.75">
       <c r="A349">
         <v>157</v>
       </c>
-      <c r="B349" s="8" t="s">
+      <c r="B349" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="C349" s="20" t="s">
+      <c r="C349" s="14" t="s">
         <v>564</v>
       </c>
       <c r="D349" t="s">
@@ -7071,14 +7074,14 @@
         <v>565</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="51">
+    <row r="351" spans="1:5" ht="45.75">
       <c r="A351">
         <v>158</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C351" s="20" t="s">
+      <c r="C351" s="14" t="s">
         <v>567</v>
       </c>
       <c r="D351" t="s">
@@ -7088,14 +7091,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="51">
+    <row r="353" spans="1:5" ht="45.75">
       <c r="A353">
         <v>159</v>
       </c>
-      <c r="B353" s="8" t="s">
+      <c r="B353" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="C353" s="20" t="s">
+      <c r="C353" s="14" t="s">
         <v>571</v>
       </c>
       <c r="D353" t="s">
@@ -7105,14 +7108,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="34">
+    <row r="355" spans="1:5" ht="30.75">
       <c r="A355">
         <v>160</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="B355" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="C355" s="20" t="s">
+      <c r="C355" s="14" t="s">
         <v>574</v>
       </c>
       <c r="D355" t="s">
@@ -7123,16 +7126,16 @@
       </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="C356" s="16"/>
-    </row>
-    <row r="357" spans="1:5" ht="51">
+      <c r="C356" s="10"/>
+    </row>
+    <row r="357" spans="1:5" ht="45.75">
       <c r="A357">
         <v>161</v>
       </c>
-      <c r="B357" s="8" t="s">
+      <c r="B357" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C357" s="20" t="s">
+      <c r="C357" s="14" t="s">
         <v>577</v>
       </c>
       <c r="D357" t="s">
@@ -7146,10 +7149,10 @@
       <c r="A359">
         <v>162</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="B359" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="C359" s="13" t="s">
+      <c r="C359" s="9" t="s">
         <v>581</v>
       </c>
       <c r="D359" t="s">
@@ -7159,14 +7162,14 @@
         <v>583</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="72">
+    <row r="361" spans="1:5" ht="66">
       <c r="A361">
         <v>163</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="B361" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="C361" s="43" t="s">
+      <c r="C361" s="22" t="s">
         <v>585</v>
       </c>
       <c r="D361" t="s">
@@ -7176,14 +7179,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="126">
+    <row r="363" spans="1:5" ht="115.5">
       <c r="A363">
         <v>164</v>
       </c>
-      <c r="B363" s="24" t="s">
+      <c r="B363" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="C363" s="21" t="s">
+      <c r="C363" s="15" t="s">
         <v>589</v>
       </c>
       <c r="D363" t="s">
@@ -7193,14 +7196,14 @@
         <v>591</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="144">
+    <row r="365" spans="1:5" ht="132">
       <c r="A365">
         <v>165</v>
       </c>
-      <c r="B365" s="24" t="s">
+      <c r="B365" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="C365" s="21" t="s">
+      <c r="C365" s="15" t="s">
         <v>593</v>
       </c>
       <c r="D365" t="s">
@@ -7210,14 +7213,14 @@
         <v>595</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="54">
+    <row r="367" spans="1:5" ht="49.5">
       <c r="A367">
         <v>166</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C367" s="21" t="s">
+      <c r="C367" s="15" t="s">
         <v>597</v>
       </c>
       <c r="D367" t="s">
@@ -7227,14 +7230,14 @@
         <v>598</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="51">
+    <row r="369" spans="1:5" ht="45.75">
       <c r="A369">
         <v>167</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="B369" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C369" s="20" t="s">
+      <c r="C369" s="14" t="s">
         <v>600</v>
       </c>
       <c r="D369" t="s">
@@ -7248,10 +7251,10 @@
       <c r="A371">
         <v>168</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="C371" s="13" t="s">
+      <c r="C371" s="9" t="s">
         <v>604</v>
       </c>
       <c r="D371" t="s">
@@ -7261,69 +7264,69 @@
         <v>605</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="34" customHeight="1">
-      <c r="A373" s="6">
+    <row r="373" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A373" s="27">
         <v>169</v>
       </c>
-      <c r="B373" s="36" t="s">
+      <c r="B373" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="C373" s="41" t="s">
+      <c r="C373" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="D373" s="6" t="s">
+      <c r="D373" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="E373" s="37" t="s">
+      <c r="E373" s="36" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="34" customHeight="1">
-      <c r="A374" s="6"/>
-      <c r="B374" s="36"/>
-      <c r="C374" s="41"/>
-      <c r="D374" s="6"/>
-      <c r="E374" s="6"/>
+    <row r="374" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A374" s="27"/>
+      <c r="B374" s="29"/>
+      <c r="C374" s="35"/>
+      <c r="D374" s="27"/>
+      <c r="E374" s="27"/>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="6">
+      <c r="A376" s="27">
         <v>170</v>
       </c>
-      <c r="B376" s="36" t="s">
+      <c r="B376" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="C376" s="41" t="s">
+      <c r="C376" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="D376" s="6" t="s">
+      <c r="D376" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="E376" s="37" t="s">
+      <c r="E376" s="36" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="6"/>
-      <c r="B377" s="36"/>
-      <c r="C377" s="40"/>
-      <c r="D377" s="6"/>
-      <c r="E377" s="6"/>
+      <c r="A377" s="27"/>
+      <c r="B377" s="29"/>
+      <c r="C377" s="37"/>
+      <c r="D377" s="27"/>
+      <c r="E377" s="27"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="6"/>
-      <c r="B378" s="36"/>
-      <c r="C378" s="40"/>
-      <c r="D378" s="6"/>
-      <c r="E378" s="6"/>
+      <c r="A378" s="27"/>
+      <c r="B378" s="29"/>
+      <c r="C378" s="37"/>
+      <c r="D378" s="27"/>
+      <c r="E378" s="27"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380">
         <v>171</v>
       </c>
-      <c r="B380" s="8" t="s">
+      <c r="B380" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C380" s="13" t="s">
+      <c r="C380" s="9" t="s">
         <v>615</v>
       </c>
       <c r="D380" t="s">
@@ -7333,14 +7336,14 @@
         <v>616</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="34">
+    <row r="382" spans="1:5" ht="30.75">
       <c r="A382">
         <v>172</v>
       </c>
-      <c r="B382" s="8" t="s">
+      <c r="B382" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C382" s="20" t="s">
+      <c r="C382" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D382" t="s">
@@ -7350,14 +7353,14 @@
         <v>619</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="68">
+    <row r="384" spans="1:5" ht="60.75">
       <c r="A384">
         <v>173</v>
       </c>
-      <c r="B384" s="8" t="s">
+      <c r="B384" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C384" s="20" t="s">
+      <c r="C384" s="14" t="s">
         <v>621</v>
       </c>
       <c r="D384" t="s">
@@ -7367,59 +7370,59 @@
         <v>622</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="17" customHeight="1">
-      <c r="A386" s="6">
+    <row r="386" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A386" s="27">
         <v>174</v>
       </c>
-      <c r="B386" s="36" t="s">
+      <c r="B386" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="C386" s="23" t="s">
+      <c r="C386" s="25" t="s">
         <v>624</v>
       </c>
-      <c r="D386" s="6" t="s">
+      <c r="D386" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E386" s="44" t="s">
+      <c r="E386" s="28" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="17" customHeight="1">
-      <c r="A387" s="6"/>
-      <c r="B387" s="36"/>
-      <c r="C387" s="38"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="44"/>
-    </row>
-    <row r="388" spans="1:5" ht="17" customHeight="1">
-      <c r="A388" s="6"/>
-      <c r="B388" s="36"/>
-      <c r="C388" s="38"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="44"/>
-    </row>
-    <row r="389" spans="1:5" ht="17" customHeight="1">
-      <c r="A389" s="6"/>
-      <c r="B389" s="36"/>
-      <c r="C389" s="38"/>
-      <c r="D389" s="6"/>
-      <c r="E389" s="44"/>
-    </row>
-    <row r="390" spans="1:5" ht="17" customHeight="1">
-      <c r="A390" s="6"/>
-      <c r="B390" s="36"/>
-      <c r="C390" s="38"/>
-      <c r="D390" s="6"/>
-      <c r="E390" s="44"/>
-    </row>
-    <row r="392" spans="1:5" ht="34">
+    <row r="387" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A387" s="27"/>
+      <c r="B387" s="29"/>
+      <c r="C387" s="26"/>
+      <c r="D387" s="27"/>
+      <c r="E387" s="28"/>
+    </row>
+    <row r="388" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A388" s="27"/>
+      <c r="B388" s="29"/>
+      <c r="C388" s="26"/>
+      <c r="D388" s="27"/>
+      <c r="E388" s="28"/>
+    </row>
+    <row r="389" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A389" s="27"/>
+      <c r="B389" s="29"/>
+      <c r="C389" s="26"/>
+      <c r="D389" s="27"/>
+      <c r="E389" s="28"/>
+    </row>
+    <row r="390" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A390" s="27"/>
+      <c r="B390" s="29"/>
+      <c r="C390" s="26"/>
+      <c r="D390" s="27"/>
+      <c r="E390" s="28"/>
+    </row>
+    <row r="392" spans="1:5" ht="30.75">
       <c r="A392">
         <v>175</v>
       </c>
-      <c r="B392" s="8" t="s">
+      <c r="B392" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C392" s="20" t="s">
+      <c r="C392" s="14" t="s">
         <v>627</v>
       </c>
       <c r="D392" t="s">
@@ -7429,14 +7432,14 @@
         <v>628</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="68">
+    <row r="394" spans="1:5" ht="60.75">
       <c r="A394">
         <v>176</v>
       </c>
-      <c r="B394" s="8" t="s">
+      <c r="B394" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C394" s="20" t="s">
+      <c r="C394" s="14" t="s">
         <v>630</v>
       </c>
       <c r="D394" t="s">
@@ -7446,14 +7449,14 @@
         <v>632</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="34">
+    <row r="396" spans="1:5" ht="30.75">
       <c r="A396">
         <v>177</v>
       </c>
-      <c r="B396" s="8" t="s">
+      <c r="B396" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C396" s="20" t="s">
+      <c r="C396" s="14" t="s">
         <v>634</v>
       </c>
       <c r="D396" t="s">
@@ -7463,14 +7466,14 @@
         <v>635</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="34">
+    <row r="398" spans="1:5" ht="31.5">
       <c r="A398">
         <v>178</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="B398" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="C398" s="16" t="s">
+      <c r="C398" s="10" t="s">
         <v>637</v>
       </c>
       <c r="D398" t="s">
@@ -7480,14 +7483,14 @@
         <v>638</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="68">
+    <row r="400" spans="1:5" ht="60.75">
       <c r="A400">
         <v>179</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="B400" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C400" s="20" t="s">
+      <c r="C400" s="14" t="s">
         <v>640</v>
       </c>
       <c r="D400" t="s">
@@ -7497,14 +7500,14 @@
         <v>642</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="36">
+    <row r="402" spans="1:5" ht="33">
       <c r="A402">
         <v>180</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B402" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="C402" s="21" t="s">
+      <c r="C402" s="15" t="s">
         <v>644</v>
       </c>
       <c r="D402" t="s">
@@ -7514,14 +7517,14 @@
         <v>646</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="102">
+    <row r="404" spans="1:5" ht="90.75">
       <c r="A404">
         <v>181</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B404" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="C404" s="20" t="s">
+      <c r="C404" s="14" t="s">
         <v>648</v>
       </c>
       <c r="D404" t="s">
@@ -7531,14 +7534,14 @@
         <v>649</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="34">
+    <row r="406" spans="1:5" ht="30.75">
       <c r="A406">
         <v>182</v>
       </c>
-      <c r="B406" s="8" t="s">
+      <c r="B406" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C406" s="20" t="s">
+      <c r="C406" s="14" t="s">
         <v>651</v>
       </c>
       <c r="D406" t="s">
@@ -7548,14 +7551,14 @@
         <v>653</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="34">
+    <row r="408" spans="1:5" ht="30.75">
       <c r="A408">
         <v>183</v>
       </c>
-      <c r="B408" s="8" t="s">
+      <c r="B408" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C408" s="20" t="s">
+      <c r="C408" s="14" t="s">
         <v>655</v>
       </c>
       <c r="D408" t="s">
@@ -7565,14 +7568,14 @@
         <v>656</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="34">
+    <row r="410" spans="1:5" ht="30.75">
       <c r="A410">
         <v>184</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B410" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="C410" s="20" t="s">
+      <c r="C410" s="14" t="s">
         <v>658</v>
       </c>
       <c r="D410" t="s">
@@ -7582,14 +7585,14 @@
         <v>659</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="36">
+    <row r="412" spans="1:5" ht="33">
       <c r="A412">
         <v>185</v>
       </c>
-      <c r="B412" s="8" t="s">
+      <c r="B412" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C412" s="21" t="s">
+      <c r="C412" s="15" t="s">
         <v>661</v>
       </c>
       <c r="D412" t="s">
@@ -7599,14 +7602,14 @@
         <v>662</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="34">
+    <row r="414" spans="1:5" ht="30.75">
       <c r="A414">
         <v>186</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="B414" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="C414" s="20" t="s">
+      <c r="C414" s="14" t="s">
         <v>664</v>
       </c>
       <c r="D414" t="s">
@@ -7616,14 +7619,14 @@
         <v>665</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="51">
+    <row r="416" spans="1:5" ht="45.75">
       <c r="A416">
         <v>187</v>
       </c>
-      <c r="B416" s="8" t="s">
+      <c r="B416" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C416" s="20" t="s">
+      <c r="C416" s="14" t="s">
         <v>667</v>
       </c>
       <c r="D416" t="s">
@@ -7633,14 +7636,14 @@
         <v>669</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="68">
+    <row r="418" spans="1:5" ht="60.75">
       <c r="A418">
         <v>188</v>
       </c>
-      <c r="B418" s="8" t="s">
+      <c r="B418" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="C418" s="20" t="s">
+      <c r="C418" s="14" t="s">
         <v>671</v>
       </c>
       <c r="D418" t="s">
@@ -7650,14 +7653,14 @@
         <v>672</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="68">
+    <row r="420" spans="1:5" ht="60.75">
       <c r="A420">
         <v>189</v>
       </c>
-      <c r="B420" s="8" t="s">
+      <c r="B420" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="C420" s="20" t="s">
+      <c r="C420" s="14" t="s">
         <v>674</v>
       </c>
       <c r="D420" t="s">
@@ -7667,14 +7670,14 @@
         <v>676</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="34">
+    <row r="422" spans="1:5" ht="47.25">
       <c r="A422">
         <v>190</v>
       </c>
-      <c r="B422" s="16" t="s">
+      <c r="B422" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C422" s="20" t="s">
+      <c r="C422" s="14" t="s">
         <v>678</v>
       </c>
       <c r="D422" t="s">
@@ -7684,14 +7687,14 @@
         <v>680</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="34">
+    <row r="424" spans="1:5" ht="30.75">
       <c r="A424">
         <v>191</v>
       </c>
-      <c r="B424" s="8" t="s">
+      <c r="B424" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="C424" s="20" t="s">
+      <c r="C424" s="14" t="s">
         <v>682</v>
       </c>
       <c r="D424" t="s">
@@ -7701,14 +7704,14 @@
         <v>684</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="68">
+    <row r="426" spans="1:5" ht="60.75">
       <c r="A426">
         <v>192</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B426" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="C426" s="20" t="s">
+      <c r="C426" s="14" t="s">
         <v>686</v>
       </c>
       <c r="D426" t="s">
@@ -7718,14 +7721,14 @@
         <v>688</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="36">
+    <row r="428" spans="1:5" ht="39">
       <c r="A428">
         <v>193</v>
       </c>
-      <c r="B428" s="24" t="s">
+      <c r="B428" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="C428" s="21" t="s">
+      <c r="C428" s="15" t="s">
         <v>690</v>
       </c>
       <c r="D428" t="s">
@@ -7735,14 +7738,14 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="36">
+    <row r="430" spans="1:5" ht="33">
       <c r="A430">
         <v>194</v>
       </c>
-      <c r="B430" s="8" t="s">
+      <c r="B430" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="C430" s="21" t="s">
+      <c r="C430" s="15" t="s">
         <v>694</v>
       </c>
       <c r="D430" t="s">
@@ -7752,14 +7755,14 @@
         <v>696</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="34">
+    <row r="432" spans="1:5" ht="30.75">
       <c r="A432">
         <v>195</v>
       </c>
-      <c r="B432" s="8" t="s">
+      <c r="B432" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="C432" s="20" t="s">
+      <c r="C432" s="14" t="s">
         <v>698</v>
       </c>
       <c r="D432" t="s">
@@ -7769,14 +7772,14 @@
         <v>700</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="51">
+    <row r="434" spans="1:5" ht="45.75">
       <c r="A434">
         <v>196</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B434" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="C434" s="20" t="s">
+      <c r="C434" s="14" t="s">
         <v>702</v>
       </c>
       <c r="D434" t="s">
@@ -7786,14 +7789,14 @@
         <v>704</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="34">
+    <row r="436" spans="1:5" ht="30.75">
       <c r="A436">
         <v>197</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B436" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C436" s="20" t="s">
+      <c r="C436" s="14" t="s">
         <v>706</v>
       </c>
       <c r="D436" t="s">
@@ -7803,14 +7806,14 @@
         <v>707</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="34">
+    <row r="438" spans="1:5" ht="30.75">
       <c r="A438">
         <v>198</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B438" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="C438" s="20" t="s">
+      <c r="C438" s="14" t="s">
         <v>709</v>
       </c>
       <c r="D438" t="s">
@@ -7821,16 +7824,16 @@
       </c>
     </row>
     <row r="440" spans="1:5" ht="18" customHeight="1">
-      <c r="A440" s="30">
+      <c r="A440" s="34">
         <v>199</v>
       </c>
-      <c r="B440" s="27" t="s">
+      <c r="B440" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="C440" s="45" t="s">
+      <c r="C440" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="D440" s="12" t="s">
+      <c r="D440" s="31" t="s">
         <v>699</v>
       </c>
       <c r="E440" s="32" t="s">
@@ -7838,20 +7841,20 @@
       </c>
     </row>
     <row r="441" spans="1:5" ht="18" customHeight="1">
-      <c r="A441" s="30"/>
-      <c r="B441" s="27"/>
-      <c r="C441" s="45"/>
-      <c r="D441" s="12"/>
+      <c r="A441" s="34"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="30"/>
+      <c r="D441" s="31"/>
       <c r="E441" s="32"/>
     </row>
-    <row r="443" spans="1:5" ht="34">
+    <row r="443" spans="1:5" ht="30.75">
       <c r="A443">
         <v>200</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B443" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="C443" s="20" t="s">
+      <c r="C443" s="14" t="s">
         <v>715</v>
       </c>
       <c r="D443" t="s">
@@ -7861,14 +7864,14 @@
         <v>716</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="34">
+    <row r="445" spans="1:5" ht="30.75">
       <c r="A445">
         <v>201</v>
       </c>
-      <c r="B445" s="8" t="s">
+      <c r="B445" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C445" s="20" t="s">
+      <c r="C445" s="14" t="s">
         <v>718</v>
       </c>
       <c r="D445" t="s">
@@ -7878,14 +7881,14 @@
         <v>719</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="34">
+    <row r="447" spans="1:5" ht="30.75">
       <c r="A447">
         <v>202</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="C447" s="20" t="s">
+      <c r="C447" s="14" t="s">
         <v>721</v>
       </c>
       <c r="D447" t="s">
@@ -7895,14 +7898,14 @@
         <v>722</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="34">
+    <row r="449" spans="1:5" ht="30.75">
       <c r="A449">
         <v>203</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B449" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="C449" s="20" t="s">
+      <c r="C449" s="14" t="s">
         <v>709</v>
       </c>
       <c r="D449" t="s">
@@ -7912,31 +7915,31 @@
         <v>724</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="68">
+    <row r="451" spans="1:5" ht="60.75">
       <c r="A451">
         <v>204</v>
       </c>
-      <c r="B451" s="24" t="s">
+      <c r="B451" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="C451" s="20" t="s">
+      <c r="C451" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="D451" s="20" t="s">
+      <c r="D451" s="14" t="s">
         <v>727</v>
       </c>
       <c r="E451" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="36">
+    <row r="453" spans="1:5" ht="33">
       <c r="A453">
         <v>205</v>
       </c>
-      <c r="B453" s="24" t="s">
+      <c r="B453" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="C453" s="21" t="s">
+      <c r="C453" s="15" t="s">
         <v>730</v>
       </c>
       <c r="D453" t="s">
@@ -7946,14 +7949,14 @@
         <v>732</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="54">
+    <row r="455" spans="1:5" ht="49.5">
       <c r="A455">
         <v>206</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="C455" s="21" t="s">
+      <c r="C455" s="15" t="s">
         <v>734</v>
       </c>
       <c r="D455" t="s">
@@ -7963,14 +7966,14 @@
         <v>736</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="54">
+    <row r="457" spans="1:5" ht="49.5">
       <c r="A457">
         <v>207</v>
       </c>
-      <c r="B457" s="8" t="s">
+      <c r="B457" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="C457" s="21" t="s">
+      <c r="C457" s="15" t="s">
         <v>738</v>
       </c>
       <c r="D457" t="s">
@@ -7980,14 +7983,14 @@
         <v>740</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="72">
+    <row r="459" spans="1:5" ht="66">
       <c r="A459">
         <v>208</v>
       </c>
-      <c r="B459" s="8" t="s">
+      <c r="B459" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="C459" s="43" t="s">
+      <c r="C459" s="22" t="s">
         <v>742</v>
       </c>
       <c r="D459" t="s">
@@ -7997,14 +8000,14 @@
         <v>743</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="90">
+    <row r="461" spans="1:5" ht="82.5">
       <c r="A461">
         <v>209</v>
       </c>
-      <c r="B461" s="8" t="s">
+      <c r="B461" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C461" s="21" t="s">
+      <c r="C461" s="15" t="s">
         <v>745</v>
       </c>
       <c r="D461" t="s">
@@ -8014,14 +8017,14 @@
         <v>746</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="34">
+    <row r="463" spans="1:5" ht="30.75">
       <c r="A463">
         <v>210</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B463" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="C463" s="20" t="s">
+      <c r="C463" s="14" t="s">
         <v>748</v>
       </c>
       <c r="D463" t="s">
@@ -8031,14 +8034,14 @@
         <v>750</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="34">
+    <row r="465" spans="1:5" ht="30.75">
       <c r="A465">
         <v>211</v>
       </c>
-      <c r="B465" s="8" t="s">
+      <c r="B465" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C465" s="20" t="s">
+      <c r="C465" s="14" t="s">
         <v>752</v>
       </c>
       <c r="D465" t="s">
@@ -8048,14 +8051,14 @@
         <v>753</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="34">
+    <row r="467" spans="1:5" ht="30.75">
       <c r="A467">
         <v>212</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="B467" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="C467" s="20" t="s">
+      <c r="C467" s="14" t="s">
         <v>755</v>
       </c>
       <c r="D467" t="s">
@@ -8065,14 +8068,14 @@
         <v>756</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="34">
+    <row r="469" spans="1:5" ht="30.75">
       <c r="A469">
         <v>213</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="B469" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="C469" s="20" t="s">
+      <c r="C469" s="14" t="s">
         <v>758</v>
       </c>
       <c r="D469" t="s">
@@ -8086,10 +8089,10 @@
       <c r="A471">
         <v>214</v>
       </c>
-      <c r="B471" s="8" t="s">
+      <c r="B471" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="C471" s="13" t="s">
+      <c r="C471" s="9" t="s">
         <v>761</v>
       </c>
       <c r="D471" t="s">
@@ -8099,14 +8102,14 @@
         <v>762</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="34">
+    <row r="473" spans="1:5" ht="30.75">
       <c r="A473">
         <v>215</v>
       </c>
-      <c r="B473" s="8" t="s">
+      <c r="B473" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="C473" s="20" t="s">
+      <c r="C473" s="14" t="s">
         <v>764</v>
       </c>
       <c r="D473" t="s">
@@ -8120,10 +8123,10 @@
       <c r="A475">
         <v>216</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B475" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C475" s="13" t="s">
+      <c r="C475" s="9" t="s">
         <v>767</v>
       </c>
       <c r="D475" t="s">
@@ -8133,14 +8136,14 @@
         <v>768</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="51">
+    <row r="477" spans="1:5" ht="45.75">
       <c r="A477">
         <v>217</v>
       </c>
-      <c r="B477" s="8" t="s">
+      <c r="B477" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="C477" s="20" t="s">
+      <c r="C477" s="14" t="s">
         <v>770</v>
       </c>
       <c r="D477" t="s">
@@ -8150,14 +8153,14 @@
         <v>771</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="34">
+    <row r="479" spans="1:5" ht="30.75">
       <c r="A479">
         <v>218</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B479" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C479" s="26" t="s">
+      <c r="C479" s="19" t="s">
         <v>773</v>
       </c>
       <c r="D479" t="s">
@@ -8167,14 +8170,14 @@
         <v>774</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="68">
+    <row r="481" spans="1:5" ht="60.75">
       <c r="A481">
         <v>219</v>
       </c>
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="C481" s="20" t="s">
+      <c r="C481" s="14" t="s">
         <v>776</v>
       </c>
       <c r="D481" t="s">
@@ -8184,14 +8187,14 @@
         <v>777</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="54">
+    <row r="483" spans="1:5" ht="49.5">
       <c r="A483">
         <v>220</v>
       </c>
-      <c r="B483" s="8" t="s">
+      <c r="B483" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C483" s="21" t="s">
+      <c r="C483" s="15" t="s">
         <v>779</v>
       </c>
       <c r="D483" t="s">
@@ -8201,14 +8204,14 @@
         <v>781</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="51">
+    <row r="485" spans="1:5" ht="45.75">
       <c r="A485">
         <v>221</v>
       </c>
-      <c r="B485" s="8" t="s">
+      <c r="B485" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="C485" s="20" t="s">
+      <c r="C485" s="14" t="s">
         <v>783</v>
       </c>
       <c r="D485" t="s">
@@ -8218,14 +8221,14 @@
         <v>784</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="34">
+    <row r="487" spans="1:5" ht="30.75">
       <c r="A487">
         <v>222</v>
       </c>
-      <c r="B487" s="8" t="s">
+      <c r="B487" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="C487" s="20" t="s">
+      <c r="C487" s="14" t="s">
         <v>786</v>
       </c>
       <c r="D487" t="s">
@@ -8235,31 +8238,31 @@
         <v>787</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="51">
+    <row r="489" spans="1:5" ht="45.75">
       <c r="A489">
         <v>223</v>
       </c>
-      <c r="B489" s="8" t="s">
+      <c r="B489" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="C489" s="20" t="s">
+      <c r="C489" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="D489" s="46" t="s">
+      <c r="D489" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E489" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="29">
+    <row r="491" spans="1:5" ht="26.25">
       <c r="A491">
         <v>224</v>
       </c>
-      <c r="B491" s="24" t="s">
+      <c r="B491" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="C491" s="20" t="s">
+      <c r="C491" s="14" t="s">
         <v>792</v>
       </c>
       <c r="D491" t="s">
@@ -8273,10 +8276,10 @@
       <c r="A493">
         <v>225</v>
       </c>
-      <c r="B493" s="8" t="s">
+      <c r="B493" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="C493" s="13" t="s">
+      <c r="C493" s="9" t="s">
         <v>796</v>
       </c>
       <c r="D493" t="s">
@@ -8286,14 +8289,14 @@
         <v>797</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="34">
+    <row r="495" spans="1:5" ht="30.75">
       <c r="A495">
         <v>226</v>
       </c>
-      <c r="B495" s="24" t="s">
+      <c r="B495" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="C495" s="20" t="s">
+      <c r="C495" s="14" t="s">
         <v>800</v>
       </c>
       <c r="D495" t="s">
@@ -8303,14 +8306,14 @@
         <v>801</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="34">
+    <row r="497" spans="1:5" ht="30.75">
       <c r="A497">
         <v>227</v>
       </c>
-      <c r="B497" s="24" t="s">
+      <c r="B497" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="C497" s="20" t="s">
+      <c r="C497" s="14" t="s">
         <v>803</v>
       </c>
       <c r="D497" t="s">
@@ -8320,14 +8323,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="51">
+    <row r="499" spans="1:5" ht="45.75">
       <c r="A499">
         <v>228</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B499" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="C499" s="20" t="s">
+      <c r="C499" s="14" t="s">
         <v>807</v>
       </c>
       <c r="D499" t="s">
@@ -8337,14 +8340,14 @@
         <v>809</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="51">
+    <row r="501" spans="1:5" ht="45.75">
       <c r="A501">
         <v>229</v>
       </c>
-      <c r="B501" s="24" t="s">
+      <c r="B501" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="C501" s="20" t="s">
+      <c r="C501" s="14" t="s">
         <v>811</v>
       </c>
       <c r="D501" t="s">
@@ -8354,14 +8357,14 @@
         <v>813</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="34">
+    <row r="503" spans="1:5" ht="30.75">
       <c r="A503">
         <v>230</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B503" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="C503" s="20" t="s">
+      <c r="C503" s="14" t="s">
         <v>815</v>
       </c>
       <c r="D503" t="s">
@@ -8371,14 +8374,14 @@
         <v>817</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="68">
+    <row r="505" spans="1:5" ht="60.75">
       <c r="A505">
         <v>231</v>
       </c>
-      <c r="B505" s="8" t="s">
+      <c r="B505" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C505" s="20" t="s">
+      <c r="C505" s="14" t="s">
         <v>819</v>
       </c>
       <c r="D505" t="s">
@@ -8388,14 +8391,14 @@
         <v>820</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="51">
+    <row r="507" spans="1:5" ht="45.75">
       <c r="A507">
         <v>232</v>
       </c>
-      <c r="B507" s="8" t="s">
+      <c r="B507" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="C507" s="20" t="s">
+      <c r="C507" s="14" t="s">
         <v>822</v>
       </c>
       <c r="D507" t="s">
@@ -8405,14 +8408,14 @@
         <v>824</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="51">
+    <row r="509" spans="1:5" ht="45.75">
       <c r="A509">
         <v>233</v>
       </c>
-      <c r="B509" s="8" t="s">
+      <c r="B509" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="C509" s="20" t="s">
+      <c r="C509" s="14" t="s">
         <v>826</v>
       </c>
       <c r="D509" t="s">
@@ -8422,14 +8425,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="68">
+    <row r="511" spans="1:5" ht="60.75">
       <c r="A511">
         <v>234</v>
       </c>
-      <c r="B511" s="8" t="s">
+      <c r="B511" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="C511" s="20" t="s">
+      <c r="C511" s="14" t="s">
         <v>830</v>
       </c>
       <c r="D511" t="s">
@@ -8439,14 +8442,14 @@
         <v>832</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="68">
+    <row r="513" spans="1:5" ht="60.75">
       <c r="A513">
         <v>235</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B513" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="C513" s="20" t="s">
+      <c r="C513" s="14" t="s">
         <v>834</v>
       </c>
       <c r="D513" t="s">
@@ -8456,14 +8459,14 @@
         <v>836</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="34">
+    <row r="515" spans="1:5" ht="39">
       <c r="A515">
         <v>236</v>
       </c>
-      <c r="B515" s="24" t="s">
+      <c r="B515" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="C515" s="20" t="s">
+      <c r="C515" s="14" t="s">
         <v>838</v>
       </c>
       <c r="D515" t="s">
@@ -8473,14 +8476,14 @@
         <v>839</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="17">
+    <row r="517" spans="1:5" ht="16.5">
       <c r="A517">
         <v>237</v>
       </c>
-      <c r="B517" s="8" t="s">
+      <c r="B517" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="C517" s="9" t="s">
+      <c r="C517" s="8" t="s">
         <v>841</v>
       </c>
       <c r="D517" t="s">
@@ -8490,14 +8493,14 @@
         <v>842</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="34">
+    <row r="519" spans="1:5" ht="39">
       <c r="A519">
         <v>238</v>
       </c>
-      <c r="B519" s="24" t="s">
+      <c r="B519" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="C519" s="20" t="s">
+      <c r="C519" s="14" t="s">
         <v>844</v>
       </c>
       <c r="D519" t="s">
@@ -8507,14 +8510,14 @@
         <v>845</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="51">
+    <row r="521" spans="1:5" ht="45.75">
       <c r="A521">
         <v>239</v>
       </c>
-      <c r="B521" s="8" t="s">
+      <c r="B521" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="C521" s="20" t="s">
+      <c r="C521" s="14" t="s">
         <v>847</v>
       </c>
       <c r="D521" t="s">
@@ -8524,14 +8527,14 @@
         <v>848</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="34">
+    <row r="523" spans="1:5" ht="30.75">
       <c r="A523">
         <v>240</v>
       </c>
-      <c r="B523" s="8" t="s">
+      <c r="B523" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="C523" s="20" t="s">
+      <c r="C523" s="14" t="s">
         <v>850</v>
       </c>
       <c r="D523" t="s">
@@ -8541,14 +8544,14 @@
         <v>851</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="34">
+    <row r="525" spans="1:5" ht="30.75">
       <c r="A525">
         <v>241</v>
       </c>
-      <c r="B525" s="24" t="s">
+      <c r="B525" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="C525" s="20" t="s">
+      <c r="C525" s="14" t="s">
         <v>853</v>
       </c>
       <c r="D525" t="s">
@@ -8558,14 +8561,14 @@
         <v>855</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="51">
+    <row r="527" spans="1:5" ht="47.25">
       <c r="A527">
         <v>242</v>
       </c>
-      <c r="B527" s="24" t="s">
+      <c r="B527" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="C527" s="16" t="s">
+      <c r="C527" s="10" t="s">
         <v>857</v>
       </c>
       <c r="D527" t="s">
@@ -8575,14 +8578,14 @@
         <v>859</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="54">
+    <row r="529" spans="1:5" ht="49.5">
       <c r="A529">
         <v>243</v>
       </c>
-      <c r="B529" s="24" t="s">
+      <c r="B529" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="C529" s="21" t="s">
+      <c r="C529" s="15" t="s">
         <v>861</v>
       </c>
       <c r="D529" t="s">
@@ -8592,14 +8595,14 @@
         <v>862</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="36">
+    <row r="531" spans="1:5" ht="33">
       <c r="A531">
         <v>244</v>
       </c>
-      <c r="B531" s="8" t="s">
+      <c r="B531" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="C531" s="21" t="s">
+      <c r="C531" s="15" t="s">
         <v>864</v>
       </c>
       <c r="D531" t="s">
@@ -8609,14 +8612,14 @@
         <v>866</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="51">
+    <row r="533" spans="1:5" ht="45.75">
       <c r="A533">
         <v>245</v>
       </c>
-      <c r="B533" s="8" t="s">
+      <c r="B533" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="C533" s="20" t="s">
+      <c r="C533" s="14" t="s">
         <v>868</v>
       </c>
       <c r="D533" t="s">
@@ -8626,14 +8629,14 @@
         <v>869</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="68">
+    <row r="535" spans="1:5" ht="60.75">
       <c r="A535">
         <v>246</v>
       </c>
-      <c r="B535" s="8" t="s">
+      <c r="B535" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="C535" s="20" t="s">
+      <c r="C535" s="14" t="s">
         <v>872</v>
       </c>
       <c r="D535" t="s">
@@ -8643,14 +8646,14 @@
         <v>873</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="51">
+    <row r="537" spans="1:5" ht="45.75">
       <c r="A537">
         <v>246</v>
       </c>
-      <c r="B537" s="8" t="s">
+      <c r="B537" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="C537" s="20" t="s">
+      <c r="C537" s="14" t="s">
         <v>875</v>
       </c>
       <c r="D537" t="s">
@@ -8660,14 +8663,14 @@
         <v>876</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="85">
+    <row r="539" spans="1:5" ht="75.75">
       <c r="A539">
         <v>247</v>
       </c>
-      <c r="B539" s="24" t="s">
+      <c r="B539" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="C539" s="20" t="s">
+      <c r="C539" s="14" t="s">
         <v>878</v>
       </c>
       <c r="D539" t="s">
@@ -8677,14 +8680,14 @@
         <v>880</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="85">
+    <row r="541" spans="1:5" ht="75.75">
       <c r="A541">
         <v>248</v>
       </c>
-      <c r="B541" s="8" t="s">
+      <c r="B541" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="C541" s="20" t="s">
+      <c r="C541" s="14" t="s">
         <v>882</v>
       </c>
       <c r="D541" t="s">
@@ -8694,14 +8697,14 @@
         <v>883</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="34">
+    <row r="543" spans="1:5" ht="30.75">
       <c r="A543">
         <v>249</v>
       </c>
-      <c r="B543" s="8" t="s">
+      <c r="B543" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C543" s="20" t="s">
+      <c r="C543" s="14" t="s">
         <v>885</v>
       </c>
       <c r="D543" t="s">
@@ -8711,14 +8714,14 @@
         <v>886</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="51">
+    <row r="545" spans="1:5" ht="45.75">
       <c r="A545">
         <v>250</v>
       </c>
-      <c r="B545" s="8" t="s">
+      <c r="B545" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="C545" s="20" t="s">
+      <c r="C545" s="14" t="s">
         <v>888</v>
       </c>
       <c r="D545" t="s">
@@ -8732,10 +8735,10 @@
       <c r="A547">
         <v>251</v>
       </c>
-      <c r="B547" s="8" t="s">
+      <c r="B547" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C547" s="13" t="s">
+      <c r="C547" s="9" t="s">
         <v>891</v>
       </c>
       <c r="D547" t="s">
@@ -8745,14 +8748,14 @@
         <v>892</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="51">
+    <row r="549" spans="1:5" ht="45.75">
       <c r="A549">
         <v>252</v>
       </c>
-      <c r="B549" s="8" t="s">
+      <c r="B549" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="C549" s="20" t="s">
+      <c r="C549" s="14" t="s">
         <v>894</v>
       </c>
       <c r="D549" t="s">
@@ -8762,14 +8765,14 @@
         <v>895</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="34">
+    <row r="551" spans="1:5" ht="30.75">
       <c r="A551">
         <v>253</v>
       </c>
-      <c r="B551" s="8" t="s">
+      <c r="B551" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="C551" s="20" t="s">
+      <c r="C551" s="14" t="s">
         <v>897</v>
       </c>
       <c r="D551" t="s">
@@ -8779,14 +8782,14 @@
         <v>898</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="68">
+    <row r="553" spans="1:5" ht="60.75">
       <c r="A553">
         <v>254</v>
       </c>
-      <c r="B553" s="8" t="s">
+      <c r="B553" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="C553" s="20" t="s">
+      <c r="C553" s="14" t="s">
         <v>900</v>
       </c>
       <c r="D553" t="s">
@@ -8796,14 +8799,14 @@
         <v>901</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="51">
+    <row r="555" spans="1:5" ht="45.75">
       <c r="A555">
         <v>255</v>
       </c>
-      <c r="B555" s="8" t="s">
+      <c r="B555" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C555" s="20" t="s">
+      <c r="C555" s="14" t="s">
         <v>903</v>
       </c>
       <c r="D555" t="s">
@@ -8813,14 +8816,14 @@
         <v>905</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="102">
+    <row r="557" spans="1:5" ht="90.75">
       <c r="A557">
         <v>256</v>
       </c>
-      <c r="B557" s="8" t="s">
+      <c r="B557" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="C557" s="20" t="s">
+      <c r="C557" s="14" t="s">
         <v>907</v>
       </c>
       <c r="D557" t="s">
@@ -8830,14 +8833,14 @@
         <v>653</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="34">
+    <row r="559" spans="1:5" ht="30.75">
       <c r="A559">
         <v>257</v>
       </c>
-      <c r="B559" s="8" t="s">
+      <c r="B559" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="C559" s="20" t="s">
+      <c r="C559" s="14" t="s">
         <v>909</v>
       </c>
       <c r="D559" t="s">
@@ -8847,14 +8850,14 @@
         <v>912</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="34">
+    <row r="561" spans="1:5" ht="30.75">
       <c r="A561">
         <v>258</v>
       </c>
-      <c r="B561" s="8" t="s">
+      <c r="B561" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="C561" s="20" t="s">
+      <c r="C561" s="14" t="s">
         <v>914</v>
       </c>
       <c r="D561" t="s">
@@ -8864,14 +8867,14 @@
         <v>916</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="34">
+    <row r="563" spans="1:5" ht="30.75">
       <c r="A563">
         <v>259</v>
       </c>
-      <c r="B563" s="8" t="s">
+      <c r="B563" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="C563" s="20" t="s">
+      <c r="C563" s="14" t="s">
         <v>918</v>
       </c>
       <c r="D563" t="s">
@@ -8885,10 +8888,10 @@
       <c r="A565">
         <v>260</v>
       </c>
-      <c r="B565" s="8" t="s">
+      <c r="B565" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="C565" s="13" t="s">
+      <c r="C565" s="9" t="s">
         <v>922</v>
       </c>
       <c r="D565" t="s">
@@ -8902,10 +8905,10 @@
       <c r="A567">
         <v>261</v>
       </c>
-      <c r="B567" s="8" t="s">
+      <c r="B567" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="C567" s="13" t="s">
+      <c r="C567" s="9" t="s">
         <v>926</v>
       </c>
       <c r="D567" t="s">
@@ -8915,14 +8918,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="51">
+    <row r="569" spans="1:5" ht="45.75">
       <c r="A569">
         <v>262</v>
       </c>
-      <c r="B569" s="8" t="s">
+      <c r="B569" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="C569" s="20" t="s">
+      <c r="C569" s="14" t="s">
         <v>930</v>
       </c>
       <c r="D569" t="s">
@@ -8932,14 +8935,14 @@
         <v>932</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="34">
+    <row r="571" spans="1:5" ht="30.75">
       <c r="A571">
         <v>263</v>
       </c>
-      <c r="B571" s="8" t="s">
+      <c r="B571" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="C571" s="20" t="s">
+      <c r="C571" s="14" t="s">
         <v>934</v>
       </c>
       <c r="D571" t="s">
@@ -8949,14 +8952,14 @@
         <v>936</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="29">
+    <row r="573" spans="1:5" ht="26.25">
       <c r="A573">
         <v>264</v>
       </c>
-      <c r="B573" s="24" t="s">
+      <c r="B573" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="C573" s="13" t="s">
+      <c r="C573" s="9" t="s">
         <v>938</v>
       </c>
       <c r="D573" t="s">
@@ -8966,14 +8969,14 @@
         <v>940</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="34">
+    <row r="575" spans="1:5" ht="30.75">
       <c r="A575">
         <v>265</v>
       </c>
-      <c r="B575" s="24" t="s">
+      <c r="B575" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="C575" s="20" t="s">
+      <c r="C575" s="14" t="s">
         <v>942</v>
       </c>
       <c r="D575" t="s">
@@ -8983,14 +8986,14 @@
         <v>944</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="34">
+    <row r="577" spans="1:5" ht="30.75">
       <c r="A577">
         <v>266</v>
       </c>
-      <c r="B577" s="8" t="s">
+      <c r="B577" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="C577" s="20" t="s">
+      <c r="C577" s="14" t="s">
         <v>946</v>
       </c>
       <c r="D577" t="s">
@@ -9000,31 +9003,31 @@
         <v>947</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="36">
+    <row r="579" spans="1:5" ht="33">
       <c r="A579">
         <v>267</v>
       </c>
-      <c r="B579" s="8" t="s">
+      <c r="B579" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="C579" s="21" t="s">
+      <c r="C579" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="D579" s="8" t="s">
+      <c r="D579" s="7" t="s">
         <v>950</v>
       </c>
       <c r="E579" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="36">
+    <row r="581" spans="1:5" ht="33">
       <c r="A581">
         <v>268</v>
       </c>
-      <c r="B581" s="8" t="s">
+      <c r="B581" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="C581" s="21" t="s">
+      <c r="C581" s="15" t="s">
         <v>953</v>
       </c>
       <c r="D581" t="s">
@@ -9034,14 +9037,14 @@
         <v>955</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="54">
+    <row r="583" spans="1:5" ht="49.5">
       <c r="A583">
         <v>269</v>
       </c>
-      <c r="B583" s="24" t="s">
+      <c r="B583" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="C583" s="21" t="s">
+      <c r="C583" s="15" t="s">
         <v>957</v>
       </c>
       <c r="D583" t="s">
@@ -9051,14 +9054,14 @@
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="68">
+    <row r="585" spans="1:5" ht="60.75">
       <c r="A585">
         <v>270</v>
       </c>
-      <c r="B585" s="8" t="s">
+      <c r="B585" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="C585" s="20" t="s">
+      <c r="C585" s="14" t="s">
         <v>960</v>
       </c>
       <c r="D585" t="s">
@@ -9068,14 +9071,14 @@
         <v>962</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="54">
+    <row r="587" spans="1:5" ht="49.5">
       <c r="A587">
         <v>271</v>
       </c>
-      <c r="B587" s="24" t="s">
+      <c r="B587" s="17" t="s">
         <v>963</v>
       </c>
-      <c r="C587" s="21" t="s">
+      <c r="C587" s="15" t="s">
         <v>964</v>
       </c>
       <c r="D587" t="s">
@@ -9085,14 +9088,14 @@
         <v>965</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="36">
+    <row r="589" spans="1:5" ht="33">
       <c r="A589">
         <v>272</v>
       </c>
-      <c r="B589" s="24" t="s">
+      <c r="B589" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="C589" s="21" t="s">
+      <c r="C589" s="15" t="s">
         <v>967</v>
       </c>
       <c r="D589" t="s">
@@ -9102,14 +9105,14 @@
         <v>968</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="36">
+    <row r="591" spans="1:5" ht="33">
       <c r="A591">
         <v>273</v>
       </c>
-      <c r="B591" s="24" t="s">
+      <c r="B591" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="C591" s="43" t="s">
+      <c r="C591" s="22" t="s">
         <v>970</v>
       </c>
       <c r="D591" t="s">
@@ -9119,14 +9122,14 @@
         <v>972</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="34">
+    <row r="593" spans="1:5" ht="30.75">
       <c r="A593">
         <v>274</v>
       </c>
-      <c r="B593" s="8" t="s">
+      <c r="B593" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="C593" s="20" t="s">
+      <c r="C593" s="14" t="s">
         <v>974</v>
       </c>
       <c r="D593" t="s">
@@ -9136,14 +9139,14 @@
         <v>975</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="51">
+    <row r="595" spans="1:5" ht="45.75">
       <c r="A595">
         <v>275</v>
       </c>
-      <c r="B595" s="8" t="s">
+      <c r="B595" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="C595" s="20" t="s">
+      <c r="C595" s="14" t="s">
         <v>977</v>
       </c>
       <c r="D595" t="s">
@@ -9153,14 +9156,14 @@
         <v>978</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="29">
+    <row r="597" spans="1:5" ht="26.25">
       <c r="A597">
         <v>276</v>
       </c>
-      <c r="B597" s="24" t="s">
+      <c r="B597" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="C597" s="18" t="s">
+      <c r="C597" s="12" t="s">
         <v>980</v>
       </c>
       <c r="D597" t="s">
@@ -9170,14 +9173,14 @@
         <v>982</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="36">
+    <row r="599" spans="1:5" ht="33">
       <c r="A599">
         <v>277</v>
       </c>
-      <c r="B599" s="24" t="s">
+      <c r="B599" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="C599" s="21" t="s">
+      <c r="C599" s="15" t="s">
         <v>984</v>
       </c>
       <c r="D599" t="s">
@@ -9187,14 +9190,14 @@
         <v>986</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="51">
+    <row r="601" spans="1:5" ht="45.75">
       <c r="A601">
         <v>278</v>
       </c>
-      <c r="B601" s="47" t="s">
+      <c r="B601" s="24" t="s">
         <v>987</v>
       </c>
-      <c r="C601" s="20" t="s">
+      <c r="C601" s="14" t="s">
         <v>988</v>
       </c>
       <c r="D601" t="s">
@@ -9204,14 +9207,14 @@
         <v>989</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="34">
+    <row r="603" spans="1:5" ht="30.75">
       <c r="A603">
         <v>279</v>
       </c>
-      <c r="B603" s="24" t="s">
+      <c r="B603" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="C603" s="20" t="s">
+      <c r="C603" s="14" t="s">
         <v>991</v>
       </c>
       <c r="D603" t="s">
@@ -9221,14 +9224,14 @@
         <v>993</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="85">
+    <row r="605" spans="1:5" ht="75.75">
       <c r="A605">
         <v>280</v>
       </c>
-      <c r="B605" s="47" t="s">
+      <c r="B605" s="24" t="s">
         <v>994</v>
       </c>
-      <c r="C605" s="20" t="s">
+      <c r="C605" s="14" t="s">
         <v>995</v>
       </c>
       <c r="D605" t="s">
@@ -9238,14 +9241,14 @@
         <v>997</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="34">
+    <row r="607" spans="1:5" ht="30.75">
       <c r="A607">
         <v>281</v>
       </c>
-      <c r="B607" s="24" t="s">
+      <c r="B607" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="C607" s="20" t="s">
+      <c r="C607" s="14" t="s">
         <v>999</v>
       </c>
       <c r="D607" t="s">
@@ -9255,48 +9258,48 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="68">
+    <row r="609" spans="1:5" ht="60.75">
       <c r="A609">
         <v>282</v>
       </c>
-      <c r="B609" s="8" t="s">
+      <c r="B609" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="C609" s="20" t="s">
+      <c r="C609" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="D609" s="8" t="s">
+      <c r="D609" s="7" t="s">
         <v>1003</v>
       </c>
       <c r="E609" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="51">
+    <row r="611" spans="1:5" ht="45.75">
       <c r="A611">
         <v>283</v>
       </c>
-      <c r="B611" s="24" t="s">
+      <c r="B611" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="C611" s="20" t="s">
+      <c r="C611" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="D611" s="13" t="s">
+      <c r="D611" s="9" t="s">
         <v>1008</v>
       </c>
       <c r="E611" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="36">
+    <row r="613" spans="1:5" ht="33">
       <c r="A613">
         <v>284</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="B613" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="C613" s="21" t="s">
+      <c r="C613" s="15" t="s">
         <v>1010</v>
       </c>
       <c r="D613" t="s">
@@ -9306,14 +9309,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="51">
+    <row r="615" spans="1:5" ht="45.75">
       <c r="A615">
         <v>285</v>
       </c>
-      <c r="B615" s="8" t="s">
+      <c r="B615" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="C615" s="20" t="s">
+      <c r="C615" s="14" t="s">
         <v>1014</v>
       </c>
       <c r="D615" t="s">
@@ -9323,14 +9326,14 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="51">
+    <row r="617" spans="1:5" ht="45.75">
       <c r="A617">
         <v>286</v>
       </c>
-      <c r="B617" s="24" t="s">
+      <c r="B617" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="C617" s="20" t="s">
+      <c r="C617" s="14" t="s">
         <v>1018</v>
       </c>
       <c r="D617" t="s">
@@ -9340,14 +9343,14 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="54">
+    <row r="619" spans="1:5" ht="49.5">
       <c r="A619">
         <v>287</v>
       </c>
-      <c r="B619" s="24" t="s">
+      <c r="B619" s="17" t="s">
         <v>1020</v>
       </c>
-      <c r="C619" s="21" t="s">
+      <c r="C619" s="15" t="s">
         <v>1021</v>
       </c>
       <c r="D619" t="s">
@@ -9357,14 +9360,14 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="51">
+    <row r="621" spans="1:5" ht="30.75">
       <c r="A621">
         <v>288</v>
       </c>
-      <c r="B621" s="8" t="s">
+      <c r="B621" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="C621" s="20" t="s">
+      <c r="C621" s="14" t="s">
         <v>1024</v>
       </c>
       <c r="D621" t="s">
@@ -9374,14 +9377,14 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="34">
+    <row r="623" spans="1:5" ht="30.75">
       <c r="A623">
         <v>289</v>
       </c>
-      <c r="B623" s="8" t="s">
+      <c r="B623" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="C623" s="20" t="s">
+      <c r="C623" s="14" t="s">
         <v>1027</v>
       </c>
       <c r="D623" t="s">
@@ -9391,17 +9394,17 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="34">
+    <row r="625" spans="1:5" ht="30.75">
       <c r="A625">
         <v>290</v>
       </c>
-      <c r="B625" s="8" t="s">
+      <c r="B625" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="C625" s="20" t="s">
+      <c r="C625" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="D625" s="18" t="s">
+      <c r="D625" s="12" t="s">
         <v>1031</v>
       </c>
       <c r="E625" t="s">
@@ -9412,10 +9415,10 @@
       <c r="A627">
         <v>291</v>
       </c>
-      <c r="B627" s="8" t="s">
+      <c r="B627" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="C627" s="13" t="s">
+      <c r="C627" s="9" t="s">
         <v>1034</v>
       </c>
       <c r="D627" t="s">
@@ -9425,31 +9428,31 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="34">
+    <row r="629" spans="1:5" ht="30.75">
       <c r="A629">
         <v>292</v>
       </c>
-      <c r="B629" s="8" t="s">
+      <c r="B629" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="C629" s="20" t="s">
+      <c r="C629" s="14" t="s">
         <v>1038</v>
       </c>
       <c r="D629" t="s">
         <v>1015</v>
       </c>
-      <c r="E629" s="20" t="s">
+      <c r="E629" s="14" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="102">
+    <row r="631" spans="1:5" ht="75.75">
       <c r="A631">
         <v>293</v>
       </c>
-      <c r="B631" s="24" t="s">
+      <c r="B631" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="C631" s="20" t="s">
+      <c r="C631" s="14" t="s">
         <v>1039</v>
       </c>
       <c r="D631" t="s">
@@ -9459,14 +9462,14 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="54">
+    <row r="633" spans="1:5" ht="49.5">
       <c r="A633">
         <v>294</v>
       </c>
-      <c r="B633" s="24" t="s">
+      <c r="B633" s="17" t="s">
         <v>1043</v>
       </c>
-      <c r="C633" s="21" t="s">
+      <c r="C633" s="15" t="s">
         <v>1044</v>
       </c>
       <c r="D633" t="s">
@@ -9476,14 +9479,14 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="51">
+    <row r="635" spans="1:5" ht="45.75">
       <c r="A635">
         <v>295</v>
       </c>
-      <c r="B635" s="24" t="s">
+      <c r="B635" s="17" t="s">
         <v>1046</v>
       </c>
-      <c r="C635" s="20" t="s">
+      <c r="C635" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="D635" t="s">
@@ -9493,14 +9496,14 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="51">
+    <row r="637" spans="1:5" ht="45.75">
       <c r="A637">
         <v>296</v>
       </c>
-      <c r="B637" s="24" t="s">
+      <c r="B637" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="C637" s="20" t="s">
+      <c r="C637" s="14" t="s">
         <v>1050</v>
       </c>
       <c r="D637" t="s">
@@ -9510,14 +9513,14 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="85">
+    <row r="639" spans="1:5" ht="60.75">
       <c r="A639">
         <v>297</v>
       </c>
-      <c r="B639" s="24" t="s">
+      <c r="B639" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="C639" s="20" t="s">
+      <c r="C639" s="14" t="s">
         <v>1053</v>
       </c>
       <c r="D639" t="s">
@@ -9527,14 +9530,14 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="51">
+    <row r="641" spans="1:5" ht="45.75">
       <c r="A641">
         <v>298</v>
       </c>
-      <c r="B641" s="24" t="s">
+      <c r="B641" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="C641" s="20" t="s">
+      <c r="C641" s="14" t="s">
         <v>1056</v>
       </c>
       <c r="D641" t="s">
@@ -9544,14 +9547,14 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="51">
+    <row r="643" spans="1:5" ht="45.75">
       <c r="A643">
         <v>299</v>
       </c>
-      <c r="B643" s="24" t="s">
+      <c r="B643" s="17" t="s">
         <v>1058</v>
       </c>
-      <c r="C643" s="20" t="s">
+      <c r="C643" s="14" t="s">
         <v>1059</v>
       </c>
       <c r="D643" t="s">
@@ -9561,14 +9564,14 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="68">
+    <row r="645" spans="1:5" ht="45.75">
       <c r="A645">
         <v>300</v>
       </c>
-      <c r="B645" s="24" t="s">
+      <c r="B645" s="17" t="s">
         <v>1061</v>
       </c>
-      <c r="C645" s="20" t="s">
+      <c r="C645" s="14" t="s">
         <v>1062</v>
       </c>
       <c r="D645" t="s">
@@ -9578,14 +9581,14 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="51">
+    <row r="647" spans="1:5" ht="45.75">
       <c r="A647">
         <v>301</v>
       </c>
-      <c r="B647" s="8" t="s">
+      <c r="B647" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="C647" s="20" t="s">
+      <c r="C647" s="14" t="s">
         <v>1065</v>
       </c>
       <c r="D647" t="s">
@@ -9595,14 +9598,14 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="85">
+    <row r="649" spans="1:5" ht="75.75">
       <c r="A649">
         <v>302</v>
       </c>
-      <c r="B649" s="24" t="s">
+      <c r="B649" s="17" t="s">
         <v>1067</v>
       </c>
-      <c r="C649" s="20" t="s">
+      <c r="C649" s="14" t="s">
         <v>1068</v>
       </c>
       <c r="D649" t="s">
@@ -9612,14 +9615,14 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="34">
+    <row r="651" spans="1:5" ht="30.75">
       <c r="A651">
         <v>303</v>
       </c>
-      <c r="B651" s="8" t="s">
+      <c r="B651" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="C651" s="20" t="s">
+      <c r="C651" s="14" t="s">
         <v>1071</v>
       </c>
       <c r="D651" t="s">
@@ -9629,14 +9632,14 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="34">
+    <row r="653" spans="1:5" ht="30.75">
       <c r="A653">
         <v>304</v>
       </c>
-      <c r="B653" s="24" t="s">
+      <c r="B653" s="17" t="s">
         <v>1073</v>
       </c>
-      <c r="C653" s="20" t="s">
+      <c r="C653" s="14" t="s">
         <v>1074</v>
       </c>
       <c r="D653" t="s">
@@ -9650,10 +9653,10 @@
       <c r="A655">
         <v>305</v>
       </c>
-      <c r="B655" s="24" t="s">
+      <c r="B655" s="17" t="s">
         <v>1076</v>
       </c>
-      <c r="C655" s="13" t="s">
+      <c r="C655" s="9" t="s">
         <v>1077</v>
       </c>
       <c r="D655" t="s">
@@ -9663,14 +9666,14 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="85">
+    <row r="657" spans="1:5" ht="75.75">
       <c r="A657">
         <v>306</v>
       </c>
-      <c r="B657" s="24" t="s">
+      <c r="B657" s="17" t="s">
         <v>1079</v>
       </c>
-      <c r="C657" s="20" t="s">
+      <c r="C657" s="14" t="s">
         <v>1081</v>
       </c>
       <c r="D657" t="s">
@@ -9681,17 +9684,17 @@
       </c>
     </row>
     <row r="658" spans="1:5">
-      <c r="B658" s="24"/>
-      <c r="C658" s="20"/>
-    </row>
-    <row r="659" spans="1:5" ht="17">
+      <c r="B658" s="17"/>
+      <c r="C658" s="14"/>
+    </row>
+    <row r="659" spans="1:5" ht="16.5">
       <c r="A659">
         <v>307</v>
       </c>
-      <c r="B659" s="24" t="s">
+      <c r="B659" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="C659" s="9" t="s">
+      <c r="C659" s="8" t="s">
         <v>1084</v>
       </c>
       <c r="D659" t="s">
@@ -9701,18 +9704,18 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="17">
-      <c r="B660" s="24"/>
-      <c r="C660" s="9"/>
-    </row>
-    <row r="661" spans="1:5" ht="17">
+    <row r="660" spans="1:5" ht="16.5">
+      <c r="B660" s="17"/>
+      <c r="C660" s="8"/>
+    </row>
+    <row r="661" spans="1:5" ht="16.5">
       <c r="A661">
         <v>308</v>
       </c>
-      <c r="B661" s="8" t="s">
+      <c r="B661" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="C661" s="9" t="s">
+      <c r="C661" s="8" t="s">
         <v>1087</v>
       </c>
       <c r="D661" t="s">
@@ -9722,18 +9725,18 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="17">
-      <c r="B662" s="8"/>
-      <c r="C662" s="9"/>
-    </row>
-    <row r="663" spans="1:5" ht="34">
+    <row r="662" spans="1:5" ht="16.5">
+      <c r="B662" s="7"/>
+      <c r="C662" s="8"/>
+    </row>
+    <row r="663" spans="1:5" ht="30.75">
       <c r="A663">
         <v>309</v>
       </c>
-      <c r="B663" s="8" t="s">
+      <c r="B663" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="C663" s="20" t="s">
+      <c r="C663" s="14" t="s">
         <v>1090</v>
       </c>
       <c r="D663" t="s">
@@ -9743,14 +9746,14 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="68">
+    <row r="665" spans="1:5" ht="60.75">
       <c r="A665">
         <v>310</v>
       </c>
-      <c r="B665" s="8" t="s">
+      <c r="B665" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="C665" s="20" t="s">
+      <c r="C665" s="14" t="s">
         <v>1093</v>
       </c>
       <c r="D665" t="s">
@@ -9764,10 +9767,10 @@
       <c r="A667">
         <v>311</v>
       </c>
-      <c r="B667" s="24" t="s">
+      <c r="B667" s="17" t="s">
         <v>1096</v>
       </c>
-      <c r="C667" s="13" t="s">
+      <c r="C667" s="9" t="s">
         <v>1097</v>
       </c>
       <c r="D667" t="s">
@@ -9781,10 +9784,10 @@
       <c r="A669">
         <v>312</v>
       </c>
-      <c r="B669" s="8" t="s">
+      <c r="B669" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="C669" s="13" t="s">
+      <c r="C669" s="9" t="s">
         <v>1100</v>
       </c>
       <c r="D669" t="s">
@@ -9794,14 +9797,14 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="34">
+    <row r="671" spans="1:5" ht="30.75">
       <c r="A671">
         <v>313</v>
       </c>
-      <c r="B671" s="8" t="s">
+      <c r="B671" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="C671" s="20" t="s">
+      <c r="C671" s="14" t="s">
         <v>1103</v>
       </c>
       <c r="D671" t="s">
@@ -9815,10 +9818,10 @@
       <c r="A673">
         <v>314</v>
       </c>
-      <c r="B673" s="8" t="s">
+      <c r="B673" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="C673" s="13" t="s">
+      <c r="C673" s="9" t="s">
         <v>1106</v>
       </c>
       <c r="D673" t="s">
@@ -9828,14 +9831,14 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="51">
+    <row r="675" spans="1:5" ht="30.75">
       <c r="A675">
         <v>315</v>
       </c>
-      <c r="B675" s="8" t="s">
+      <c r="B675" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="C675" s="20" t="s">
+      <c r="C675" s="14" t="s">
         <v>1109</v>
       </c>
       <c r="D675" t="s">
@@ -9849,10 +9852,10 @@
       <c r="A677">
         <v>316</v>
       </c>
-      <c r="B677" s="8" t="s">
+      <c r="B677" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="C677" s="13" t="s">
+      <c r="C677" s="9" t="s">
         <v>1112</v>
       </c>
       <c r="D677" t="s">
@@ -9869,60 +9872,8 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C386:C390"/>
-    <mergeCell ref="D386:D390"/>
-    <mergeCell ref="E386:E390"/>
-    <mergeCell ref="A386:A390"/>
-    <mergeCell ref="B386:B390"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="E440:E441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="E373:E374"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="E376:E378"/>
-    <mergeCell ref="C316:C319"/>
-    <mergeCell ref="D316:D319"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="B316:B319"/>
-    <mergeCell ref="A316:A319"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="D331:D333"/>
-    <mergeCell ref="B331:B333"/>
-    <mergeCell ref="A331:A333"/>
-    <mergeCell ref="E331:E333"/>
-    <mergeCell ref="A272:A275"/>
-    <mergeCell ref="C281:C284"/>
-    <mergeCell ref="D281:D284"/>
-    <mergeCell ref="E281:E284"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="C248:C254"/>
-    <mergeCell ref="D248:D254"/>
-    <mergeCell ref="E248:E254"/>
-    <mergeCell ref="B248:B254"/>
-    <mergeCell ref="C272:C275"/>
-    <mergeCell ref="D272:D275"/>
-    <mergeCell ref="E272:E275"/>
-    <mergeCell ref="B272:B275"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="D140:D144"/>
-    <mergeCell ref="E140:E144"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="D94:D96"/>
     <mergeCell ref="E94:E96"/>
     <mergeCell ref="A94:A96"/>
@@ -9933,99 +9884,173 @@
     <mergeCell ref="A126:A128"/>
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C140:C144"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="D140:D144"/>
+    <mergeCell ref="E140:E144"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="C248:C254"/>
+    <mergeCell ref="D248:D254"/>
+    <mergeCell ref="E248:E254"/>
+    <mergeCell ref="B248:B254"/>
+    <mergeCell ref="C272:C275"/>
+    <mergeCell ref="D272:D275"/>
+    <mergeCell ref="E272:E275"/>
+    <mergeCell ref="B272:B275"/>
+    <mergeCell ref="A272:A275"/>
+    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="D281:D284"/>
+    <mergeCell ref="E281:E284"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="D331:D333"/>
+    <mergeCell ref="B331:B333"/>
+    <mergeCell ref="A331:A333"/>
+    <mergeCell ref="E331:E333"/>
+    <mergeCell ref="C316:C319"/>
+    <mergeCell ref="D316:D319"/>
+    <mergeCell ref="E316:E319"/>
+    <mergeCell ref="B316:B319"/>
+    <mergeCell ref="A316:A319"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="B376:B378"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="E376:E378"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="E373:E374"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="E440:E441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="C386:C390"/>
+    <mergeCell ref="D386:D390"/>
+    <mergeCell ref="E386:E390"/>
+    <mergeCell ref="A386:A390"/>
+    <mergeCell ref="B386:B390"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{AD6F3FD1-5C4B-6149-A606-129DE238ED34}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{91255915-0AA6-594F-9C31-8260B4CA58E5}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{3CF83571-5133-4140-83F3-E2A09290B2FB}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{ADC4806F-49A0-C040-B08E-EC7CB8750ABA}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{8287362F-5BB4-D747-8F3F-5D6A98B9216E}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{EAB02C85-6D92-D545-8A2D-1D84C19412B6}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{2D946688-E114-C34D-A968-8954401ED200}"/>
-    <hyperlink ref="E19" r:id="rId8" xr:uid="{FB6D8C20-83AE-164A-B2D8-02E0B4CBF545}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{57294451-419D-394C-A11D-8C0D5FCD76F4}"/>
-    <hyperlink ref="E26" r:id="rId10" xr:uid="{C9FA39F4-58AA-7549-BDC7-5C6A79E2D92B}"/>
-    <hyperlink ref="E28" r:id="rId11" xr:uid="{E6C586E9-6C6C-CF4E-9DA7-37C31D8EA934}"/>
-    <hyperlink ref="E32" r:id="rId12" xr:uid="{F64C068E-0055-7E4C-B0C9-4D2EA0951C86}"/>
-    <hyperlink ref="E34" r:id="rId13" xr:uid="{9654A556-80CB-1443-A3A3-34BDD66A8B9A}"/>
-    <hyperlink ref="E36" r:id="rId14" xr:uid="{1041B255-AE76-594C-895B-50AADDA34A0B}"/>
-    <hyperlink ref="E38" r:id="rId15" xr:uid="{AE13795E-9EF0-B54F-944A-B367D9E00823}"/>
-    <hyperlink ref="E40" r:id="rId16" xr:uid="{C9779962-DE28-7E47-AD4A-28086F2C14E6}"/>
-    <hyperlink ref="E42" r:id="rId17" xr:uid="{E1372C83-E78A-344D-A690-39E9BFF23E30}"/>
-    <hyperlink ref="E44" r:id="rId18" xr:uid="{4BC39619-5C8D-664E-9A90-632CF84E5B42}"/>
-    <hyperlink ref="E46" r:id="rId19" xr:uid="{5576C221-BEB3-8C46-8EF5-8137FB07EB2B}"/>
-    <hyperlink ref="E48" r:id="rId20" xr:uid="{6DB29B2F-CBC1-3A44-9D62-CA2861042D93}"/>
-    <hyperlink ref="E50" r:id="rId21" xr:uid="{3F0440AD-EA39-9A4A-8D8D-48957C876C6C}"/>
-    <hyperlink ref="E52" r:id="rId22" xr:uid="{973E8CF6-36AF-E949-9A89-E2F5674C1265}"/>
-    <hyperlink ref="E54" r:id="rId23" xr:uid="{98198ACB-8D26-1749-AFED-4F31E6CB1F72}"/>
-    <hyperlink ref="E56" r:id="rId24" xr:uid="{2ABEE9F2-1E23-E345-9DBE-1CE82413362D}"/>
-    <hyperlink ref="E58" r:id="rId25" xr:uid="{6ED9E848-8727-0E45-9A31-AF136950D664}"/>
-    <hyperlink ref="E60" r:id="rId26" xr:uid="{0F094F54-2E35-0845-8035-068D754C5893}"/>
-    <hyperlink ref="E62" r:id="rId27" xr:uid="{A288BBBB-9253-CA40-AC13-C02D01CDC358}"/>
-    <hyperlink ref="E64" r:id="rId28" xr:uid="{36F1C518-F58D-BC41-9990-83CBFCD83CDA}"/>
-    <hyperlink ref="E66" r:id="rId29" xr:uid="{B45F461E-A4D5-B44C-966B-B48CD07EF7BA}"/>
-    <hyperlink ref="E68" r:id="rId30" xr:uid="{D3DCE4E1-DEDC-704F-9F56-5303DD97511C}"/>
-    <hyperlink ref="E70" r:id="rId31" xr:uid="{1E320F82-3535-1642-B8AE-101329DD1A66}"/>
-    <hyperlink ref="E72" r:id="rId32" xr:uid="{3732571C-6B8A-B244-B5CC-E1232D91C2C9}"/>
-    <hyperlink ref="E74" r:id="rId33" xr:uid="{B21B7CB2-7C31-1C47-86EB-ED46F1017FE2}"/>
-    <hyperlink ref="E76" r:id="rId34" xr:uid="{C981830F-EE1E-564F-9DC4-65BC9FBAD971}"/>
-    <hyperlink ref="E78" r:id="rId35" xr:uid="{0B9B3089-9A1A-8A42-BA7C-5CC2AAE8F843}"/>
-    <hyperlink ref="E80" r:id="rId36" xr:uid="{C078CA8A-C758-BB44-AF48-672B9BD55A49}"/>
-    <hyperlink ref="E82" r:id="rId37" xr:uid="{0C72C009-05AB-2740-AE1D-1AB87BF97DAE}"/>
-    <hyperlink ref="E84" r:id="rId38" xr:uid="{4FA34F22-5B2A-5F4A-A696-0D72F720B1A1}"/>
-    <hyperlink ref="E86" r:id="rId39" xr:uid="{FAF32992-D3C2-1A43-B2B0-F478BC188FF7}"/>
-    <hyperlink ref="E88" r:id="rId40" xr:uid="{E28EB3E3-08D3-784C-811C-F1362DD1AD17}"/>
-    <hyperlink ref="E90" r:id="rId41" xr:uid="{E2D10AC4-36E9-8F44-8895-E354F1CD6D44}"/>
-    <hyperlink ref="E92" r:id="rId42" xr:uid="{E4F7A3B7-6FD4-534B-A3B0-4FAFCB3C2489}"/>
-    <hyperlink ref="E94" r:id="rId43" xr:uid="{77F5596D-9FA3-4942-9B52-01F681F88EF9}"/>
-    <hyperlink ref="E98" r:id="rId44" xr:uid="{5C33B9AD-F029-0F4A-AC60-8BB7BFAA20E4}"/>
-    <hyperlink ref="E100" r:id="rId45" xr:uid="{800DC3C4-7556-114A-A467-DE190325C9FC}"/>
-    <hyperlink ref="E102" r:id="rId46" xr:uid="{85D58015-83A9-C34B-82CD-F6E4B077A44E}"/>
-    <hyperlink ref="E104" r:id="rId47" xr:uid="{61ECE1D4-9613-1D44-88EE-20DA9D583962}"/>
-    <hyperlink ref="E106" r:id="rId48" xr:uid="{D93AE8D0-956F-A044-A9B7-7D1E372FF319}"/>
-    <hyperlink ref="E108" r:id="rId49" xr:uid="{5714D9B0-FFA7-5C4F-A0BD-810922864BA3}"/>
-    <hyperlink ref="E110" r:id="rId50" xr:uid="{7AE49188-9573-3149-9A82-B2BC95632C1D}"/>
-    <hyperlink ref="E112" r:id="rId51" xr:uid="{5077E89B-920F-604A-82C1-CE2ECBAFE8D9}"/>
-    <hyperlink ref="E114" r:id="rId52" xr:uid="{8A8D84C1-2B61-4146-A879-F95149B761F1}"/>
-    <hyperlink ref="E116" r:id="rId53" xr:uid="{6C2A56AC-B9A0-784D-9E21-ADE7019AEA85}"/>
-    <hyperlink ref="E118" r:id="rId54" xr:uid="{5F20EDBB-A87F-8F45-A359-50F035052B50}"/>
-    <hyperlink ref="E120" r:id="rId55" xr:uid="{25C0C99E-E7DD-BD4C-BAFD-4C0F50C09DEC}"/>
-    <hyperlink ref="E122" r:id="rId56" xr:uid="{60051577-0E05-B642-A4B0-C364860AAD74}"/>
-    <hyperlink ref="E124" r:id="rId57" xr:uid="{38BCC072-4AAF-D842-ACF0-9845889A076C}"/>
-    <hyperlink ref="E126" r:id="rId58" xr:uid="{39DC71BF-9CFF-7641-BF87-2F0ECD3123D6}"/>
-    <hyperlink ref="E130" r:id="rId59" xr:uid="{04926394-3973-8A40-82AC-F2FCE3381794}"/>
-    <hyperlink ref="E132" r:id="rId60" xr:uid="{7EDF5489-6D58-4547-B5E3-9DFA833DF943}"/>
-    <hyperlink ref="E134" r:id="rId61" xr:uid="{35021B85-AA55-0D49-BB74-23ED69BEF1D0}"/>
-    <hyperlink ref="E136" r:id="rId62" xr:uid="{2E7A5021-00D6-B542-B425-D6CC2132DCAB}"/>
-    <hyperlink ref="E140" r:id="rId63" xr:uid="{10EE485E-1483-7B4E-88B2-9AD0C5B2C424}"/>
-    <hyperlink ref="E146" r:id="rId64" xr:uid="{E1EE132A-6431-5748-BC06-DEE648742414}"/>
-    <hyperlink ref="E148" r:id="rId65" xr:uid="{0F26E148-6F56-8E4B-8AC3-66006B9BA7C1}"/>
-    <hyperlink ref="E150" r:id="rId66" xr:uid="{C4B7FE52-53CC-5E4D-8C64-B64621BEF27D}"/>
-    <hyperlink ref="E152" r:id="rId67" xr:uid="{FE1A9322-5E74-5B4F-83FD-AC01E326E11E}"/>
-    <hyperlink ref="E154" r:id="rId68" xr:uid="{01874D57-75A3-5543-B3E5-74DC646CD47C}"/>
-    <hyperlink ref="E156" r:id="rId69" xr:uid="{76ABFB28-1189-2B46-A8FA-05DA27192729}"/>
-    <hyperlink ref="E158" r:id="rId70" xr:uid="{D88956B3-7CED-2C4D-AF99-37FF9B6657EB}"/>
-    <hyperlink ref="E160" r:id="rId71" xr:uid="{FF65F95A-558F-7246-99C8-C708171196A3}"/>
-    <hyperlink ref="E162" r:id="rId72" xr:uid="{CA049115-FD38-0A48-8E8B-B7E5EB3D4CE1}"/>
-    <hyperlink ref="E164" r:id="rId73" xr:uid="{CEB0FAD3-0A1F-3E4F-B565-001ABAFE07C3}"/>
-    <hyperlink ref="E166" r:id="rId74" xr:uid="{B89FD0C1-51C0-CD4E-A92C-AA0DAA894C84}"/>
-    <hyperlink ref="E168" r:id="rId75" xr:uid="{3B3D7AFF-6DBA-124F-AB7C-851A70B6D863}"/>
-    <hyperlink ref="E170" r:id="rId76" xr:uid="{5C8C1AE4-390F-6747-B6B3-3FA2F7FB45DD}"/>
-    <hyperlink ref="E248" r:id="rId77" xr:uid="{B3E7079D-8AF8-1141-B01E-24F9670E05A0}"/>
-    <hyperlink ref="E272" r:id="rId78" xr:uid="{3C710614-B630-F24D-B696-D5E3772C98AE}"/>
-    <hyperlink ref="E281" r:id="rId79" xr:uid="{2175F745-797A-4F43-9067-D4644F1E659D}"/>
-    <hyperlink ref="E294" r:id="rId80" xr:uid="{F71EAD31-1CDC-594A-9177-29F614B3BB1D}"/>
-    <hyperlink ref="E316" r:id="rId81" xr:uid="{BB004994-BF48-734A-8336-71A40D2648D0}"/>
-    <hyperlink ref="E331" r:id="rId82" xr:uid="{C585EFC2-F53F-B946-A7C6-1382C1DAF974}"/>
-    <hyperlink ref="E373" r:id="rId83" xr:uid="{7C2EDCFB-2EFA-5940-B810-B6EE7109ACF1}"/>
-    <hyperlink ref="E376" r:id="rId84" xr:uid="{08946BF9-4DD8-DD4A-93B6-EB9895D35FC1}"/>
-    <hyperlink ref="E398" r:id="rId85" xr:uid="{63AB985F-B9C1-1A47-962C-8E6DC81257BA}"/>
-    <hyperlink ref="E440" r:id="rId86" xr:uid="{4697E9C3-642B-4943-BABC-A71A0A0DD4B4}"/>
-    <hyperlink ref="E553" r:id="rId87" xr:uid="{3E2A0D7C-9650-9743-878B-86227BC3866A}"/>
-    <hyperlink ref="E623" r:id="rId88" xr:uid="{92F918FE-D880-1E44-A1DF-D8F03B9B447B}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="E17" r:id="rId7"/>
+    <hyperlink ref="E19" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="E26" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
+    <hyperlink ref="E32" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E36" r:id="rId14"/>
+    <hyperlink ref="E38" r:id="rId15"/>
+    <hyperlink ref="E40" r:id="rId16"/>
+    <hyperlink ref="E42" r:id="rId17"/>
+    <hyperlink ref="E44" r:id="rId18"/>
+    <hyperlink ref="E46" r:id="rId19"/>
+    <hyperlink ref="E48" r:id="rId20"/>
+    <hyperlink ref="E50" r:id="rId21"/>
+    <hyperlink ref="E52" r:id="rId22"/>
+    <hyperlink ref="E54" r:id="rId23"/>
+    <hyperlink ref="E56" r:id="rId24"/>
+    <hyperlink ref="E58" r:id="rId25"/>
+    <hyperlink ref="E60" r:id="rId26"/>
+    <hyperlink ref="E62" r:id="rId27"/>
+    <hyperlink ref="E64" r:id="rId28"/>
+    <hyperlink ref="E66" r:id="rId29"/>
+    <hyperlink ref="E68" r:id="rId30"/>
+    <hyperlink ref="E70" r:id="rId31"/>
+    <hyperlink ref="E72" r:id="rId32"/>
+    <hyperlink ref="E74" r:id="rId33"/>
+    <hyperlink ref="E76" r:id="rId34"/>
+    <hyperlink ref="E78" r:id="rId35"/>
+    <hyperlink ref="E80" r:id="rId36"/>
+    <hyperlink ref="E82" r:id="rId37"/>
+    <hyperlink ref="E84" r:id="rId38"/>
+    <hyperlink ref="E86" r:id="rId39"/>
+    <hyperlink ref="E88" r:id="rId40"/>
+    <hyperlink ref="E90" r:id="rId41"/>
+    <hyperlink ref="E92" r:id="rId42"/>
+    <hyperlink ref="E94" r:id="rId43"/>
+    <hyperlink ref="E98" r:id="rId44"/>
+    <hyperlink ref="E100" r:id="rId45"/>
+    <hyperlink ref="E102" r:id="rId46"/>
+    <hyperlink ref="E104" r:id="rId47"/>
+    <hyperlink ref="E106" r:id="rId48"/>
+    <hyperlink ref="E108" r:id="rId49"/>
+    <hyperlink ref="E110" r:id="rId50"/>
+    <hyperlink ref="E112" r:id="rId51"/>
+    <hyperlink ref="E114" r:id="rId52"/>
+    <hyperlink ref="E116" r:id="rId53"/>
+    <hyperlink ref="E118" r:id="rId54"/>
+    <hyperlink ref="E120" r:id="rId55"/>
+    <hyperlink ref="E122" r:id="rId56"/>
+    <hyperlink ref="E124" r:id="rId57"/>
+    <hyperlink ref="E126" r:id="rId58"/>
+    <hyperlink ref="E130" r:id="rId59"/>
+    <hyperlink ref="E132" r:id="rId60"/>
+    <hyperlink ref="E134" r:id="rId61"/>
+    <hyperlink ref="E136" r:id="rId62"/>
+    <hyperlink ref="E140" r:id="rId63"/>
+    <hyperlink ref="E146" r:id="rId64"/>
+    <hyperlink ref="E148" r:id="rId65"/>
+    <hyperlink ref="E150" r:id="rId66"/>
+    <hyperlink ref="E152" r:id="rId67"/>
+    <hyperlink ref="E154" r:id="rId68"/>
+    <hyperlink ref="E156" r:id="rId69"/>
+    <hyperlink ref="E158" r:id="rId70"/>
+    <hyperlink ref="E160" r:id="rId71"/>
+    <hyperlink ref="E162" r:id="rId72"/>
+    <hyperlink ref="E164" r:id="rId73"/>
+    <hyperlink ref="E166" r:id="rId74"/>
+    <hyperlink ref="E168" r:id="rId75"/>
+    <hyperlink ref="E170" r:id="rId76"/>
+    <hyperlink ref="E248" r:id="rId77"/>
+    <hyperlink ref="E272" r:id="rId78"/>
+    <hyperlink ref="E281" r:id="rId79"/>
+    <hyperlink ref="E294" r:id="rId80"/>
+    <hyperlink ref="E316" r:id="rId81"/>
+    <hyperlink ref="E331" r:id="rId82"/>
+    <hyperlink ref="E373" r:id="rId83"/>
+    <hyperlink ref="E376" r:id="rId84"/>
+    <hyperlink ref="E398" r:id="rId85"/>
+    <hyperlink ref="E440" r:id="rId86"/>
+    <hyperlink ref="E553" r:id="rId87"/>
+    <hyperlink ref="E623" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="hi" sheetId="2" r:id="rId2"/>
+    <sheet name="sam" sheetId="3" r:id="rId2"/>
+    <sheet name="hi" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1131">
   <si>
     <t>Product Name</t>
   </si>
@@ -3573,12 +3574,65 @@
   <si>
     <t>hi</t>
   </si>
+  <si>
+    <t>The Body Shop Tea Tree Oil</t>
+  </si>
+  <si>
+    <t>The Iconic Tea Tree Oil from The Body Shop is great for on the spot application.
+Renowned for it's powerful skin purifying properties, this purest and potent concentration of Community Trade Organic Tea Tree Oil targets blemishes, remove impurities and mattifes your skin.</t>
+  </si>
+  <si>
+    <t>The Body Shop</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Tree-Fluid-Ounce/dp/B00L2QFR22/ref=sr_1_13?crid=1NGF4A9LF4Z5R&amp;keywords=the+bodyshop+tea+tree&amp;qid=1576678760&amp;sprefix=the+bodyshop+tea%2Caps%2C275&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>The Body Shop Vitamin E Facial Wash</t>
+  </si>
+  <si>
+    <t>A gentle, non-drying cleansing facial wash that leaves skin feeling clean, soft and refreshed.
+ Formulated with protective vitamin E and moisturising wheat germ oil. Pair with our vitamin E 
+hydrating toner, as part of your personalised skin care routine.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Vitamin-Facial-125ml/dp/B01FFL4DAQ/ref=sr_1_2?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>The Body Shop British Rose Shower Gel</t>
+  </si>
+  <si>
+    <t>Awaken your skin with the irresistibly dewy scent of roses. Our cleansing shower gel is infused 
+with the essence of hand-picked roses from Britain to make showering feel blooming beautiful.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-British-Shower-250ml/dp/B01FX43MS4/ref=sr_1_3?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>The Body Shop British Rose Body Yogurt</t>
+  </si>
+  <si>
+    <t>The good frangrance British rose body yogurt, 48hr moisturizer, 100% vegan, 6.98 Fl. Oz. Leaves your skin 
+smooth for long.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-British-Yogurt-Moisturizer/dp/B07BKFY281/ref=sr_1_4?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>The Body Shop Strawberry Shower Gel</t>
+  </si>
+  <si>
+    <t>Immerse yourself in the fruity scent of strawberry as you lather up with our soap-free bodywash. This shower gel is perfect to nourish and envelop your skin in softness. Shower cream cleanses the skin leaves skin feeling soft lather-rich soap free cold-pressed strawberry seed oil community trade honey from ethiopia.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Strawberry-Shower-250ml/dp/B006JOLW8A/ref=sr_1_5?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3685,6 +3739,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF03021A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3707,7 +3794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3753,38 +3840,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3793,22 +3874,50 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4127,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E679"/>
   <sheetViews>
-    <sheetView topLeftCell="A659" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B679" sqref="B679"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D683" sqref="D683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4309,7 +4418,7 @@
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
@@ -4320,13 +4429,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="C20" s="45"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="C21" s="45"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="C22" s="45"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
@@ -4375,7 +4484,7 @@
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
@@ -4386,10 +4495,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="C29" s="45"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="C30" s="45"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="78.75">
       <c r="A32">
@@ -4922,35 +5031,35 @@
       <c r="C93" s="10"/>
     </row>
     <row r="94" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A94" s="34">
+      <c r="A94" s="30">
         <v>43</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="E94" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A95" s="34"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="33"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="43"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="29"/>
     </row>
     <row r="96" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A96" s="34"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="33"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="43"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="29"/>
     </row>
     <row r="97" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="C97" s="19"/>
@@ -5197,16 +5306,16 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A126" s="34">
+      <c r="A126" s="30">
         <v>58</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C126" s="44" t="s">
+      <c r="C126" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D126" s="42" t="s">
+      <c r="D126" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E126" s="32" t="s">
@@ -5214,17 +5323,17 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A127" s="34"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="33"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="42"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="28"/>
       <c r="E127" s="32"/>
     </row>
     <row r="128" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A128" s="34"/>
+      <c r="A128" s="30"/>
       <c r="B128" s="33"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="42"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="28"/>
       <c r="E128" s="32"/>
     </row>
     <row r="130" spans="1:5" ht="45.75">
@@ -5279,16 +5388,16 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A136" s="34">
+      <c r="A136" s="30">
         <v>62</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C136" s="41" t="s">
+      <c r="C136" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E136" s="32" t="s">
@@ -5296,30 +5405,30 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A137" s="34"/>
+      <c r="A137" s="30"/>
       <c r="B137" s="33"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="31"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="36"/>
       <c r="E137" s="32"/>
     </row>
     <row r="138" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A138" s="34"/>
+      <c r="A138" s="30"/>
       <c r="B138" s="33"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="31"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="36"/>
       <c r="E138" s="32"/>
     </row>
     <row r="140" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A140" s="34">
+      <c r="A140" s="30">
         <v>63</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="C140" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E140" s="32" t="s">
@@ -5327,31 +5436,31 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A141" s="34"/>
+      <c r="A141" s="30"/>
       <c r="B141" s="33"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="31"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="36"/>
       <c r="E141" s="32"/>
     </row>
     <row r="142" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A142" s="34"/>
+      <c r="A142" s="30"/>
       <c r="B142" s="33"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="31"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="36"/>
       <c r="E142" s="32"/>
     </row>
     <row r="143" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A143" s="34"/>
+      <c r="A143" s="30"/>
       <c r="B143" s="33"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="31"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="36"/>
       <c r="E143" s="32"/>
     </row>
     <row r="144" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A144" s="34"/>
+      <c r="A144" s="30"/>
       <c r="B144" s="33"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="31"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="36"/>
       <c r="E144" s="32"/>
     </row>
     <row r="146" spans="1:5" ht="45.75">
@@ -6231,54 +6340,54 @@
       <c r="A248">
         <v>115</v>
       </c>
-      <c r="B248" s="29" t="s">
+      <c r="B248" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="C248" s="39" t="s">
+      <c r="C248" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="D248" s="27" t="s">
+      <c r="D248" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="E248" s="36" t="s">
+      <c r="E248" s="39" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="B249" s="29"/>
-      <c r="C249" s="39"/>
-      <c r="D249" s="27"/>
-      <c r="E249" s="27"/>
+      <c r="B249" s="40"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="38"/>
+      <c r="E249" s="38"/>
     </row>
     <row r="250" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="B250" s="29"/>
-      <c r="C250" s="39"/>
-      <c r="D250" s="27"/>
-      <c r="E250" s="27"/>
+      <c r="B250" s="40"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="38"/>
+      <c r="E250" s="38"/>
     </row>
     <row r="251" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="B251" s="29"/>
-      <c r="C251" s="39"/>
-      <c r="D251" s="27"/>
-      <c r="E251" s="27"/>
+      <c r="B251" s="40"/>
+      <c r="C251" s="37"/>
+      <c r="D251" s="38"/>
+      <c r="E251" s="38"/>
     </row>
     <row r="252" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="B252" s="29"/>
-      <c r="C252" s="39"/>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
+      <c r="B252" s="40"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="38"/>
+      <c r="E252" s="38"/>
     </row>
     <row r="253" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="B253" s="29"/>
-      <c r="C253" s="39"/>
-      <c r="D253" s="27"/>
-      <c r="E253" s="27"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="38"/>
+      <c r="E253" s="38"/>
     </row>
     <row r="254" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="B254" s="29"/>
-      <c r="C254" s="39"/>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="38"/>
+      <c r="E254" s="38"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
@@ -6420,42 +6529,42 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="18" customHeight="1">
-      <c r="A272" s="27">
+      <c r="A272" s="38">
         <v>124</v>
       </c>
-      <c r="B272" s="29" t="s">
+      <c r="B272" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="C272" s="40" t="s">
+      <c r="C272" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="D272" s="27" t="s">
+      <c r="D272" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E272" s="36" t="s">
+      <c r="E272" s="39" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" customHeight="1">
-      <c r="A273" s="27"/>
-      <c r="B273" s="29"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="27"/>
-      <c r="E273" s="27"/>
+      <c r="A273" s="38"/>
+      <c r="B273" s="40"/>
+      <c r="C273" s="34"/>
+      <c r="D273" s="38"/>
+      <c r="E273" s="38"/>
     </row>
     <row r="274" spans="1:5" ht="18" customHeight="1">
-      <c r="A274" s="27"/>
-      <c r="B274" s="29"/>
-      <c r="C274" s="40"/>
-      <c r="D274" s="27"/>
-      <c r="E274" s="27"/>
+      <c r="A274" s="38"/>
+      <c r="B274" s="40"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="38"/>
+      <c r="E274" s="38"/>
     </row>
     <row r="275" spans="1:5" ht="18" customHeight="1">
-      <c r="A275" s="27"/>
-      <c r="B275" s="29"/>
-      <c r="C275" s="40"/>
-      <c r="D275" s="27"/>
-      <c r="E275" s="27"/>
+      <c r="A275" s="38"/>
+      <c r="B275" s="40"/>
+      <c r="C275" s="34"/>
+      <c r="D275" s="38"/>
+      <c r="E275" s="38"/>
     </row>
     <row r="277" spans="1:5" ht="33">
       <c r="A277">
@@ -6492,42 +6601,42 @@
       </c>
     </row>
     <row r="281" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A281" s="27">
+      <c r="A281" s="38">
         <v>127</v>
       </c>
-      <c r="B281" s="29" t="s">
+      <c r="B281" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="C281" s="25" t="s">
+      <c r="C281" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="27" t="s">
+      <c r="D281" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E281" s="36" t="s">
+      <c r="E281" s="39" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A282" s="27"/>
-      <c r="B282" s="29"/>
-      <c r="C282" s="26"/>
-      <c r="D282" s="27"/>
-      <c r="E282" s="27"/>
+      <c r="A282" s="38"/>
+      <c r="B282" s="40"/>
+      <c r="C282" s="42"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="38"/>
     </row>
     <row r="283" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A283" s="27"/>
-      <c r="B283" s="29"/>
-      <c r="C283" s="26"/>
-      <c r="D283" s="27"/>
-      <c r="E283" s="27"/>
+      <c r="A283" s="38"/>
+      <c r="B283" s="40"/>
+      <c r="C283" s="42"/>
+      <c r="D283" s="38"/>
+      <c r="E283" s="38"/>
     </row>
     <row r="284" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A284" s="27"/>
-      <c r="B284" s="29"/>
-      <c r="C284" s="26"/>
-      <c r="D284" s="27"/>
-      <c r="E284" s="27"/>
+      <c r="A284" s="38"/>
+      <c r="B284" s="40"/>
+      <c r="C284" s="42"/>
+      <c r="D284" s="38"/>
+      <c r="E284" s="38"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
@@ -6785,42 +6894,42 @@
       </c>
     </row>
     <row r="316" spans="1:5" ht="29.1" customHeight="1">
-      <c r="A316" s="27">
+      <c r="A316" s="38">
         <v>143</v>
       </c>
-      <c r="B316" s="38" t="s">
+      <c r="B316" s="45" t="s">
         <v>512</v>
       </c>
-      <c r="C316" s="35" t="s">
+      <c r="C316" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="D316" s="27" t="s">
+      <c r="D316" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="E316" s="36" t="s">
+      <c r="E316" s="39" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="27"/>
-      <c r="B317" s="38"/>
-      <c r="C317" s="37"/>
-      <c r="D317" s="27"/>
-      <c r="E317" s="27"/>
+      <c r="A317" s="38"/>
+      <c r="B317" s="45"/>
+      <c r="C317" s="44"/>
+      <c r="D317" s="38"/>
+      <c r="E317" s="38"/>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="27"/>
-      <c r="B318" s="38"/>
-      <c r="C318" s="37"/>
-      <c r="D318" s="27"/>
-      <c r="E318" s="27"/>
+      <c r="A318" s="38"/>
+      <c r="B318" s="45"/>
+      <c r="C318" s="44"/>
+      <c r="D318" s="38"/>
+      <c r="E318" s="38"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="27"/>
-      <c r="B319" s="38"/>
-      <c r="C319" s="37"/>
-      <c r="D319" s="27"/>
-      <c r="E319" s="27"/>
+      <c r="A319" s="38"/>
+      <c r="B319" s="45"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="38"/>
+      <c r="E319" s="38"/>
     </row>
     <row r="321" spans="1:5" ht="45.75">
       <c r="A321">
@@ -6908,35 +7017,35 @@
       </c>
     </row>
     <row r="331" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A331" s="27">
+      <c r="A331" s="38">
         <v>149</v>
       </c>
-      <c r="B331" s="29" t="s">
+      <c r="B331" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C331" s="25" t="s">
+      <c r="C331" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="D331" s="27" t="s">
+      <c r="D331" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="E331" s="36" t="s">
+      <c r="E331" s="39" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A332" s="27"/>
-      <c r="B332" s="29"/>
-      <c r="C332" s="26"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
+      <c r="A332" s="38"/>
+      <c r="B332" s="40"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="38"/>
+      <c r="E332" s="38"/>
     </row>
     <row r="333" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A333" s="27"/>
-      <c r="B333" s="29"/>
-      <c r="C333" s="26"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
+      <c r="A333" s="38"/>
+      <c r="B333" s="40"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="38"/>
+      <c r="E333" s="38"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335">
@@ -7265,59 +7374,59 @@
       </c>
     </row>
     <row r="373" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A373" s="27">
+      <c r="A373" s="38">
         <v>169</v>
       </c>
-      <c r="B373" s="29" t="s">
+      <c r="B373" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="C373" s="35" t="s">
+      <c r="C373" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="D373" s="27" t="s">
+      <c r="D373" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="E373" s="36" t="s">
+      <c r="E373" s="39" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A374" s="27"/>
-      <c r="B374" s="29"/>
-      <c r="C374" s="35"/>
-      <c r="D374" s="27"/>
-      <c r="E374" s="27"/>
+      <c r="A374" s="38"/>
+      <c r="B374" s="40"/>
+      <c r="C374" s="43"/>
+      <c r="D374" s="38"/>
+      <c r="E374" s="38"/>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="27">
+      <c r="A376" s="38">
         <v>170</v>
       </c>
-      <c r="B376" s="29" t="s">
+      <c r="B376" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="C376" s="35" t="s">
+      <c r="C376" s="43" t="s">
         <v>611</v>
       </c>
-      <c r="D376" s="27" t="s">
+      <c r="D376" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="E376" s="36" t="s">
+      <c r="E376" s="39" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="27"/>
-      <c r="B377" s="29"/>
-      <c r="C377" s="37"/>
-      <c r="D377" s="27"/>
-      <c r="E377" s="27"/>
+      <c r="A377" s="38"/>
+      <c r="B377" s="40"/>
+      <c r="C377" s="44"/>
+      <c r="D377" s="38"/>
+      <c r="E377" s="38"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="27"/>
-      <c r="B378" s="29"/>
-      <c r="C378" s="37"/>
-      <c r="D378" s="27"/>
-      <c r="E378" s="27"/>
+      <c r="A378" s="38"/>
+      <c r="B378" s="40"/>
+      <c r="C378" s="44"/>
+      <c r="D378" s="38"/>
+      <c r="E378" s="38"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380">
@@ -7371,49 +7480,49 @@
       </c>
     </row>
     <row r="386" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A386" s="27">
+      <c r="A386" s="38">
         <v>174</v>
       </c>
-      <c r="B386" s="29" t="s">
+      <c r="B386" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C386" s="25" t="s">
+      <c r="C386" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="D386" s="27" t="s">
+      <c r="D386" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E386" s="28" t="s">
+      <c r="E386" s="47" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A387" s="27"/>
-      <c r="B387" s="29"/>
-      <c r="C387" s="26"/>
-      <c r="D387" s="27"/>
-      <c r="E387" s="28"/>
+      <c r="A387" s="38"/>
+      <c r="B387" s="40"/>
+      <c r="C387" s="42"/>
+      <c r="D387" s="38"/>
+      <c r="E387" s="47"/>
     </row>
     <row r="388" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A388" s="27"/>
-      <c r="B388" s="29"/>
-      <c r="C388" s="26"/>
-      <c r="D388" s="27"/>
-      <c r="E388" s="28"/>
+      <c r="A388" s="38"/>
+      <c r="B388" s="40"/>
+      <c r="C388" s="42"/>
+      <c r="D388" s="38"/>
+      <c r="E388" s="47"/>
     </row>
     <row r="389" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A389" s="27"/>
-      <c r="B389" s="29"/>
-      <c r="C389" s="26"/>
-      <c r="D389" s="27"/>
-      <c r="E389" s="28"/>
+      <c r="A389" s="38"/>
+      <c r="B389" s="40"/>
+      <c r="C389" s="42"/>
+      <c r="D389" s="38"/>
+      <c r="E389" s="47"/>
     </row>
     <row r="390" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A390" s="27"/>
-      <c r="B390" s="29"/>
-      <c r="C390" s="26"/>
-      <c r="D390" s="27"/>
-      <c r="E390" s="28"/>
+      <c r="A390" s="38"/>
+      <c r="B390" s="40"/>
+      <c r="C390" s="42"/>
+      <c r="D390" s="38"/>
+      <c r="E390" s="47"/>
     </row>
     <row r="392" spans="1:5" ht="30.75">
       <c r="A392">
@@ -7824,16 +7933,16 @@
       </c>
     </row>
     <row r="440" spans="1:5" ht="18" customHeight="1">
-      <c r="A440" s="34">
+      <c r="A440" s="30">
         <v>199</v>
       </c>
       <c r="B440" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="C440" s="30" t="s">
+      <c r="C440" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="D440" s="31" t="s">
+      <c r="D440" s="36" t="s">
         <v>699</v>
       </c>
       <c r="E440" s="32" t="s">
@@ -7841,10 +7950,10 @@
       </c>
     </row>
     <row r="441" spans="1:5" ht="18" customHeight="1">
-      <c r="A441" s="34"/>
+      <c r="A441" s="30"/>
       <c r="B441" s="33"/>
-      <c r="C441" s="30"/>
-      <c r="D441" s="31"/>
+      <c r="C441" s="46"/>
+      <c r="D441" s="36"/>
       <c r="E441" s="32"/>
     </row>
     <row r="443" spans="1:5" ht="30.75">
@@ -9872,28 +9981,42 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="D140:D144"/>
-    <mergeCell ref="E140:E144"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="C386:C390"/>
+    <mergeCell ref="D386:D390"/>
+    <mergeCell ref="E386:E390"/>
+    <mergeCell ref="A386:A390"/>
+    <mergeCell ref="B386:B390"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="E440:E441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="E373:E374"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="B376:B378"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="E376:E378"/>
+    <mergeCell ref="C316:C319"/>
+    <mergeCell ref="D316:D319"/>
+    <mergeCell ref="E316:E319"/>
+    <mergeCell ref="B316:B319"/>
+    <mergeCell ref="A316:A319"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="D331:D333"/>
+    <mergeCell ref="B331:B333"/>
+    <mergeCell ref="A331:A333"/>
+    <mergeCell ref="E331:E333"/>
+    <mergeCell ref="A272:A275"/>
+    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="D281:D284"/>
+    <mergeCell ref="E281:E284"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="B281:B284"/>
     <mergeCell ref="C248:C254"/>
     <mergeCell ref="D248:D254"/>
     <mergeCell ref="E248:E254"/>
@@ -9902,42 +10025,28 @@
     <mergeCell ref="D272:D275"/>
     <mergeCell ref="E272:E275"/>
     <mergeCell ref="B272:B275"/>
-    <mergeCell ref="A272:A275"/>
-    <mergeCell ref="C281:C284"/>
-    <mergeCell ref="D281:D284"/>
-    <mergeCell ref="E281:E284"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="D331:D333"/>
-    <mergeCell ref="B331:B333"/>
-    <mergeCell ref="A331:A333"/>
-    <mergeCell ref="E331:E333"/>
-    <mergeCell ref="C316:C319"/>
-    <mergeCell ref="D316:D319"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="B316:B319"/>
-    <mergeCell ref="A316:A319"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="E376:E378"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="E373:E374"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="E440:E441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="C386:C390"/>
-    <mergeCell ref="D386:D390"/>
-    <mergeCell ref="E386:E390"/>
-    <mergeCell ref="A386:A390"/>
-    <mergeCell ref="B386:B390"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="C140:C144"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="D140:D144"/>
+    <mergeCell ref="E140:E144"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="B94:B96"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
@@ -10036,9 +10145,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="96.625" customWidth="1"/>
+    <col min="4" max="4" width="161.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="39">
+      <c r="A1" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="63.75">
+      <c r="A2" s="51" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="76.5">
+      <c r="A3" s="51" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63.75">
+      <c r="A4" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75">
+      <c r="A5" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1194">
   <si>
     <t>Product Name</t>
   </si>
@@ -3622,17 +3622,228 @@
     <t>The Body Shop Strawberry Shower Gel</t>
   </si>
   <si>
-    <t>Immerse yourself in the fruity scent of strawberry as you lather up with our soap-free bodywash. This shower gel is perfect to nourish and envelop your skin in softness. Shower cream cleanses the skin leaves skin feeling soft lather-rich soap free cold-pressed strawberry seed oil community trade honey from ethiopia.</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/Body-Shop-Strawberry-Shower-250ml/dp/B006JOLW8A/ref=sr_1_5?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>The Body Shop Vitamin C Glow Boosting Moisturizer</t>
+  </si>
+  <si>
+    <t>This shower gel is perfect to nourish and envelop your skin in softness. Shower cream cleanses the skin leaves skin feeling soft lather-rich soap free cold-pressed strawberry seed oil community trade honey from ethiopia.</t>
+  </si>
+  <si>
+    <t>Say goodbye to grumpy, dull, fatigued looking skin and reveal your natural, 
+healthy-looking glow with our Vitamin C Glow Boosting Moisturizer.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Vitamin-Boosting-Moisturizer/dp/B01M0RIAU6/ref=sr_1_6?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>The Body Shop Vitamin Shop E Lip Care Stick</t>
+  </si>
+  <si>
+    <t> It melts and glides over skin as you apply leaving it feel soft, smooth and supple.
+ Loaded with the richest source of natural Vitamin E, wheatgerm oil, which helps to hydrate and protect lips 
+from moisture loss</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Vitamin-Stick-Ounce/dp/B000E4QBVE/ref=sr_1_7?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>The Body Shop Body Lotion, Strawberry Puree</t>
+  </si>
+  <si>
+    <t>Strawberry puree body lotion is lightweight body lotion contains real strawberry seed oil. 
+It hydrates dry skin and leaves it feeling soft and smooth.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Lotion-Strawberry-Puree/dp/B000TBIJ4Y/ref=sr_1_8?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>The Body Shop Almond Milk &amp; Honey Soothing &amp; Caring Shower Cream </t>
+  </si>
+  <si>
+    <t>The Body Shop Almond Milk &amp; Honey Shower Cream, Body Wash for Sensitive, Dry Skin, 8.4 Fl. Oz.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Almond-Soothing-Caring/dp/B01MRXM1UY/ref=sr_1_10?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>The Body Shop Vitamin E Moisture Cream</t>
+  </si>
+  <si>
+    <t>The antioxidant power of vitamin e in this moisture cream helps prevent premature aging and 
+damage from free radicals one of the body shop's products worldwide our vitamin e moisture cream works 
+with any skin type</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Vitamin-Moisture-Cream/dp/B002HR3AGU/ref=sr_1_11?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>The Body Shop Ginger Anti-Dandruff Shampoo</t>
+  </si>
+  <si>
+    <t>The body shop presents one of the best ginger anti-dandruff shampoo. It is very popular.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Ginger-Anti-Dandruff-Shampoo/dp/B01MDPOPNC/ref=sr_1_12?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>The Body Shop Strawberry Body Polish Scrub</t>
+  </si>
+  <si>
+    <t>Cleanse and exfoliate with a foaming, gel-based scrub that has crushed walnut shells and kiwi seeds and 
+a light strawberry scent.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Strawberry-Polish-Scrub/dp/B00E58XR30/ref=sr_1_13?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>The Body Shop Oils of Life Intensely Revitalising Cream</t>
+  </si>
+  <si>
+    <t>By infusing 3 precious seed oils from around the world, known for their revitalising and repairing properties 
+on skin – black cumin seed oil from Egypt, camellia seed oil from china and rosehip seed oil from Chile – in to a 
+silky cream with perfecting micro-pearls, we created a daily cream that intensely revitalises skin, replenishes 
+moisture and revives radiance</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Intensely-Revitalising-Cream/dp/B015K9UI5M/ref=sr_1_16?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>The Body Shop Moringa Shower Gel</t>
+  </si>
+  <si>
+    <t>This soap-free shower gel contains real moringa seed oil and has the delicate scent of white flowers.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Moringa-Shower-250ml/dp/B00AO4EKSA/ref=sr_1_21?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>The Body Shop Vitamin C Skin Boost</t>
+  </si>
+  <si>
+    <t>Instant smoothing radiance with a silky smooth finish to create a radiant glow contains amazonian camu 
+camu berry which is known to have one of the highest contents of vitamin c in nature antioxident vitamin c 
+encourages production of collagen, improves elasticity and protects against damaging environmental aggressors.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Vitamin-Skin-Boost/dp/B003V3ISS4/ref=sr_1_22?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>The Body Shop Born Lippy Balm</t>
+  </si>
+  <si>
+    <t>Instantly hydrate and soften your lips with this fruity lip butter. Full of strawberry seed oil, this sweetly 
+scented balm will keep you coming back for more!</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Lippy-Strawberry-Ounce/dp/B01NBOR629/ref=sr_1_23?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>The Body Shop BANANA Shampoo</t>
+  </si>
+  <si>
+    <t>Banana shampoo 8.4Oz/250ml gently cleanses hair, leaving it beautifully shiny contains real banana puree with community fair trade honey for all hair types.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-BANANA-Shampoo-250/dp/B0051SX1YS/ref=sr_1_24?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>The Body Shop Wild Argan Oil Shower Gel</t>
+  </si>
+  <si>
+    <t>Pick up our shower gel to refresh your senses and nourish  the skin. With a warm, exotic scent our non-drying  
+argan oil formula, luxuriously cleanses and softens the skin with each use.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Argan-Shower-250ml/dp/B00LQJPYUU/ref=sr_1_25?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>The Body Shop Moringa Body Butter</t>
+  </si>
+  <si>
+    <t>The special formula is long-lasting and is being absorbed quickly. The ingredients and the beautiful scent are
+ soothing to your skin and soul. Allow yourself moments of wellness und luxury. </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Moringa-Butter-200/dp/B078MP1RWP/ref=sr_1_26?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>The Body Shop Grapeseed Hair Serum</t>
+  </si>
+  <si>
+    <t>Smooth your hair and increase the shine with this glossy serum. Apply a small amount through your hair, 
+for the best results.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Grapeseed-Hair-Serum/dp/B003QKO0PW/ref=sr_1_28?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>The Body Shop British Rose Instant Glow Body Butter</t>
+  </si>
+  <si>
+    <t>Indulge in dewy hydration with our first body butter with glow enhancing rose essence. Beautifully pearlescent, 
+this velvety-soft moisturiser is light to the touch but rich on moisture. </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-British-Instant-Butter/dp/B01ELV1M82/ref=sr_1_33?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>The Body Shop Shower Gel</t>
+  </si>
+  <si>
+    <t>This soap-free bath and shower gel contains organic, cold-pressed olive oil. It has a neutral scent. Lather-rich
+neutral olive scent.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Shower-Olive-250ml/dp/B007HI6TJE/ref=sr_1_34?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>The Body Shop Matte Kajal </t>
+  </si>
+  <si>
+    <t>Perfect for creating a smoky eye look, a smart, easy-grip pack ensures mistake-free application every time. 
+Easy to smudge- 83% agree* smooth to apply- 88% agree* great for a dramatic look.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Matte-Kajal-Black/dp/B078JPJDC2/ref=sr_1_35?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>The Body Shop Wild Argan oil Body lotion</t>
+  </si>
+  <si>
+    <t>Full of Community Trade argan oil from Morocco, our whipped lotion leaves the skin feeling hydrated and nourished. Your skin will be wrapped in moisture and gently scented with a warm, luxurious fragrance.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Wild-Argan-lotion/dp/B073DBRB6Z/ref=sr_1_36?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>The Body Shop Tea Tree Face Mask</t>
+  </si>
+  <si>
+    <t>A natural alternative for blemish prone skin leave your skin feeling deeply clean and refreshed with this 
+instantly cooling mask our tea tree face mask combats existing blemishes, helps prevent future blemishes and 
+controls oil and shine</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Tree-Face-100ml/dp/B002K8OEHK/ref=sr_1_37?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>The Body Shop Banana Conditioner</t>
+  </si>
+  <si>
+    <t>Nourish and protect your hair with an irresistible smelling conditioner that leaves it free of tangles and easy to
+ manage. Best for: all skin types </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Body-Shop-Banana-Conditioner-8-4-Fluid/dp/B0033VVJSK/ref=sr_1_38?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3772,6 +3983,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Interstate"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3794,7 +4010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3918,6 +4134,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10145,10 +10365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10218,13 +10438,307 @@
         <v>1128</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1117</v>
       </c>
       <c r="D5" s="50" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="76.5">
+      <c r="A6" s="51" t="s">
         <v>1130</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63.75">
+      <c r="A7" s="51" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63.75">
+      <c r="A8" s="51" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="114.75">
+      <c r="A9" s="51" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63.75">
+      <c r="A10" s="51" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="63.75">
+      <c r="A11" s="51" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="76.5">
+      <c r="A12" s="51" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="76.5">
+      <c r="A13" s="51" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75">
+      <c r="A14" s="51" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51">
+      <c r="A15" s="51" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25">
+      <c r="A16" s="51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51">
+      <c r="A17" s="51" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="63.75">
+      <c r="A18" s="51" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63.75">
+      <c r="A19" s="51" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51">
+      <c r="A20" s="51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="89.25">
+      <c r="A21" s="51" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="51">
+      <c r="A22" s="51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51">
+      <c r="A23" s="51" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51">
+      <c r="A24" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51">
+      <c r="A25" s="51" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51">
+      <c r="A26" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -10234,9 +10748,30 @@
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D15" r:id="rId15"/>
+    <hyperlink ref="D16" r:id="rId16"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="D23" r:id="rId23"/>
+    <hyperlink ref="D24" r:id="rId24"/>
+    <hyperlink ref="D25" r:id="rId25"/>
+    <hyperlink ref="D26" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="465" windowWidth="28035" windowHeight="16080" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="28035" windowHeight="16080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sam" sheetId="3" r:id="rId2"/>
-    <sheet name="hi" sheetId="2" r:id="rId3"/>
+    <sheet name="27-" sheetId="4" r:id="rId3"/>
+    <sheet name="hi" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1254">
   <si>
     <t>Product Name</t>
   </si>
@@ -3838,12 +3839,208 @@
   <si>
     <t>https://www.amazon.in/Body-Shop-Banana-Conditioner-8-4-Fluid/dp/B0033VVJSK/ref=sr_1_38?keywords=the+bodyshop&amp;qid=1576678855&amp;sr=8-38</t>
   </si>
+  <si>
+    <t>Nykaa Rock The Line Kajal</t>
+  </si>
+  <si>
+    <t>Stay gorgeous at all times with Nykaa's Rock The Line Kajal. Formulated to give you intense all day wear, it delivers
+ triple-black pigment! Packed with skin-loving ingredients like Vitamin E and C, this waterproof Kajal glides 
+on effortlessly.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Rock-Line-Kajal-0-35gm/dp/B0741FF4CT/ref=sr_1_1?keywords=nykaa&amp;qid=1576685424&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Nykaa Black Magic Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Nykaa’s Black Magic Eyeliner is all you need to get your best eyes on. What's great about this product is its melt,
+ crack and run resistant properties.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Black-Magic-Liquid-Eyeliner/dp/B075TJ7NHX/ref=sr_1_2?keywords=nykaa&amp;qid=1576685424&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>Nykaa So Matte Lipstick - Naughty Nude</t>
+  </si>
+  <si>
+    <t>The creamy, long-lasting texture gives you pout-worthy lips in one stroke.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-So-Matte-Lipstick-4-2Grams/dp/B0741F7MZD/ref=sr_1_3?keywords=nykaa&amp;qid=1576685424&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Nykaa Lip Crush Macaron Lip Balm</t>
+  </si>
+  <si>
+    <t> Enriched with Shea Butter &amp; Vitamin E, it delivers long-lasting moisture to your lips &amp; provides year-round 
+protection</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Lip-Crush-Macaron-Balm-Strawberry/dp/B07L129KSM/ref=sr_1_6?keywords=nykaa&amp;qid=1576685424&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Nykaa Nude Nail Enamel Collection Lavender Buttercream</t>
+  </si>
+  <si>
+    <t>Presenting tempting shades that dry to a stunning matte finish, this collection is dedicated for the 'it' girl in you.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Enamel-Collection-Lavender-Buttercream/dp/B073WSGQ14/ref=sr_1_7?keywords=nykaa&amp;qid=1576685424&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Nykaa SKINgenius Sculpting &amp; Hydrating Foundation</t>
+  </si>
+  <si>
+    <t>Experience the weightless texture of Nykaa SKINgenius Sculpting &amp; Hydrating Foundation. 
+This luxurious long-wear formula lasts all day long, keeping your skin fresh and radiant. </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-SKINgenius-Sculpting-Hydrating-Foundation/dp/B0763V39J7/ref=sr_1_10?keywords=nykaa&amp;qid=1576685424&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Nykaa Sealed with a Kiss Lip Palette</t>
+  </si>
+  <si>
+    <t>This multi-tasking palette features six expertly coordinated color combinations of intensely pigmented
+ matte lip cream that gives you the coverage of a matte lipstick and blendability of a blusher.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Sealed-Palette-Flower-Child/dp/B07GZSW4CW/ref=sr_1_13?keywords=nykaa&amp;qid=1576685424&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Nykaa Paintstix </t>
+  </si>
+  <si>
+    <t>Nykaa's Paintstix boasts a remarkable formula that pushes the boundaries of color intensity with its rich 
+and intense pigment. </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Paintstix-Smell-Ros%C3%A9-3-5gm/dp/B0763T5JGF/ref=sr_1_16?keywords=nykaa&amp;qid=1576685424&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Nykaa Get Inked! Sketch Eyeliner</t>
+  </si>
+  <si>
+    <t>Featuring a slender and precise felt tip, this intensely pigmented, waterproof pen lets you achieve intense 
+black liquid lines effortlessly.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Get-Inked-Sketch-Eyeliner/dp/B0763T8BST/ref=sr_1_21?keywords=nykaa&amp;qid=1576685424&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Nykaa Serial Kisser Lip Balm</t>
+  </si>
+  <si>
+    <t>The serial kisser Lip Balm is a fruit based lip balm range. It moisturizes the lips and the fragrances are beautiful.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Serial-Kisser-Balm-Blueberry/dp/B07PC1N9X9/ref=sr_1_25?keywords=nykaa&amp;qid=1576685424&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Nykaa Rose and White Musk Hand and Nail Creme</t>
+  </si>
+  <si>
+    <t>Rose &amp; White Musk Hand &amp; Nail Creme</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Rose-White-Musk-Creme/dp/B07GWWH11N/ref=sr_1_31?keywords=nykaa&amp;qid=1576685424&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>Nykaa Cookie Crumble Nail Enamel </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Cookie-Crumble-Nail-Enamel/dp/B0757WTC7H/ref=sr_1_34?keywords=nykaa&amp;qid=1576685424&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>Our Nykaa Cookie Crumble Nail Lacquer in Vanilla Crisps is as classic as it gets.
+This milky white nail lacquer speckled with matte black treat will have you drooling over it!</t>
+  </si>
+  <si>
+    <t>Nykaa Masaba Lipstick -Nimbu Pani</t>
+  </si>
+  <si>
+    <t>Bring home the high spirited and ultra flattering Masaba prints in your makeup vanity with these 
+10 shades of velvet matte masaba lipsticks, specially curated for Indian skin tone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Masaba-Lipstick-Nimbu-Pani/dp/B07XJ6SL1G/ref=sr_1_35?keywords=nykaa&amp;qid=1576685424&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Nykaa Skingenious Spf 30 Classic Tan BB Cream</t>
+  </si>
+  <si>
+    <t>SKINgenious BB Cream SPF 30 Classic Tan 05</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Skingenious-Spf-Classic-Cream/dp/B07GWWXLP8/ref=sr_1_37?keywords=nykaa&amp;qid=1576685424&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>Nykaa MATTE-ilicious Lip Crayon - Call Me Scarlet </t>
+  </si>
+  <si>
+    <t>Let that body rock from side to side! Put your hands-up and lose control with this hard-to-miss 
+bold red shade. Dance like it’s the last night of your life and show off your gorgeous self!</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-MATTE-ilicious-Lip-Crayon-Sharpener/dp/B0757PL1W4/ref=sr_1_38?keywords=nykaa&amp;qid=1576685424&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>Nykaa! BrowGIRL Brow Definer- Bewitched Chestnut 01</t>
+  </si>
+  <si>
+    <t>Ace the brow game with Nykaa BrowGirl Brow Definer. Its custom, tear-drop shape tip helps you to 
+effortlessly fill and define brows, no expertise needed! </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-BrowGIRL-Definer-Bewitched-Chestnut/dp/B07QHL8M5T/ref=sr_1_41?keywords=nykaa&amp;qid=1576685424&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>Nykaa Glow Getter Highlighting &amp; Illuminating Duo</t>
+  </si>
+  <si>
+    <t>Made for the girl who loves her glow, Nykaa Glow Getter Highlighting &amp; Illuminating Duo features two 
+luminescent shades that reflect light to give you an amplified radiance. </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Glow-Getter-Highlighting-Illuminating/dp/B07B6TBYYX/ref=sr_1_44?keywords=nykaa&amp;qid=1576685424&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>Nykaa Get Cheeky! Blush Duo</t>
+  </si>
+  <si>
+    <t>his blush duo brings a natural-looking flush of color that pops on every skin tone. This palette provides a 
+dominant color and a subtle color for blending and softening edges.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Get-Cheeky-Blush-Duo/dp/B07B6RD8WD/ref=sr_1_55?keywords=nykaa&amp;qid=1576686263&amp;sr=8-55</t>
+  </si>
+  <si>
+    <t>Nykaa Gloss it Up! High Shine Lip Gloss</t>
+  </si>
+  <si>
+    <t>Nykaa Gloss it Up! High Shine Lip Gloss 5ml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Gloss-High-Shine-Main/dp/B07N4R8LRN/ref=sr_1_76?keywords=nykaa&amp;qid=1576686263&amp;sr=8-76</t>
+  </si>
+  <si>
+    <t>Nykaa Lips Don't Lie Line and Fill Lip Liner</t>
+  </si>
+  <si>
+    <t>Define, fill and pout! Meet the artisan Nykaa Lips Don't Lie Lip Pencil. This wood-clenched eco-friendly pencil 
+comes with an addictive water-proof creamy formula that's so lightweight, that it feels like there's nothing on
+ your lips! </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nykaa-Lips-Dont-Liner-Sweetheart/dp/B07JBNVC2V/ref=sr_1_80?keywords=nykaa&amp;qid=1576686263&amp;sr=8-80</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3988,6 +4185,33 @@
       <color rgb="FF111111"/>
       <name val="Interstate"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4010,7 +4234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4138,6 +4362,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4456,7 +4691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E679"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="D683" sqref="D683"/>
     </sheetView>
   </sheetViews>
@@ -10367,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10777,6 +11012,328 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="99.375" customWidth="1"/>
+    <col min="4" max="4" width="122.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.5">
+      <c r="A1" s="58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25">
+      <c r="A2" s="58" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25">
+      <c r="A3" s="58" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57">
+      <c r="A4" s="58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="71.25">
+      <c r="A5" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71.25">
+      <c r="A6" s="58" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75">
+      <c r="A7" s="58" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25">
+      <c r="A8" s="58" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75">
+      <c r="A9" s="58" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5">
+      <c r="A10" s="58" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57">
+      <c r="A11" s="58" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.75">
+      <c r="A12" s="58" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75">
+      <c r="A13" s="58" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57">
+      <c r="A14" s="58" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57">
+      <c r="A15" s="58" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="71.25">
+      <c r="A16" s="58" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57">
+      <c r="A17" s="58" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42.75">
+      <c r="A18" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42.75">
+      <c r="A19" s="58" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57">
+      <c r="A20" s="58" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D15" r:id="rId15"/>
+    <hyperlink ref="D16" r:id="rId16"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
